--- a/tests/testdata/mq_proteinGroups.xlsx
+++ b/tests/testdata/mq_proteinGroups.xlsx
@@ -1256,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,6 +1306,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2254,210 +2255,210 @@
       <c r="AX3" s="13"/>
       <c r="AY3" s="11"/>
       <c r="AZ3" s="14"/>
-      <c r="BA3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BA3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BC3" s="10" t="s">
+      <c r="BC3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BD3" s="10">
+      <c r="BD3" s="17">
         <v>5</v>
       </c>
-      <c r="BE3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="10">
+      <c r="BE3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="17">
         <v>4</v>
       </c>
-      <c r="BH3" s="10">
+      <c r="BH3" s="17">
         <v>5</v>
       </c>
-      <c r="BI3" s="10">
+      <c r="BI3" s="17">
         <v>5</v>
       </c>
-      <c r="BJ3" s="10">
+      <c r="BJ3" s="17">
         <v>5</v>
       </c>
-      <c r="BK3" s="10">
+      <c r="BK3" s="17">
         <v>5</v>
       </c>
-      <c r="BL3" s="10">
+      <c r="BL3" s="17">
         <v>5</v>
       </c>
-      <c r="BM3" s="10">
+      <c r="BM3" s="17">
         <v>5</v>
       </c>
-      <c r="BN3" s="10">
+      <c r="BN3" s="17">
         <v>5</v>
       </c>
-      <c r="BO3" s="10">
+      <c r="BO3" s="17">
         <v>5</v>
       </c>
-      <c r="BP3" s="10">
+      <c r="BP3" s="17">
         <v>0</v>
       </c>
-      <c r="BQ3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="10">
+      <c r="BQ3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="17">
         <v>0</v>
       </c>
-      <c r="BZ3" s="10">
-        <v>1</v>
-      </c>
-      <c r="CA3" s="10">
-        <v>1</v>
-      </c>
-      <c r="CB3" s="10">
-        <v>1</v>
-      </c>
-      <c r="CC3" s="10">
-        <v>1</v>
-      </c>
-      <c r="CD3" s="10">
-        <v>1</v>
-      </c>
-      <c r="CE3" s="10">
-        <v>1</v>
-      </c>
-      <c r="CF3" s="10">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="10">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="10">
+      <c r="BZ3" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="17">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="17">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="17">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="17">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="17">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="17">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="17">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="17">
         <v>6.6</v>
       </c>
-      <c r="CI3" s="10">
+      <c r="CI3" s="17">
         <v>6.6</v>
       </c>
-      <c r="CJ3" s="10" t="s">
+      <c r="CJ3" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="CK3" s="10">
+      <c r="CK3" s="17">
         <v>75</v>
       </c>
-      <c r="CL3" s="10"/>
-      <c r="CM3" s="10"/>
-      <c r="CN3" s="10"/>
-      <c r="CO3" s="10">
+      <c r="CL3" s="17"/>
+      <c r="CM3" s="17"/>
+      <c r="CN3" s="17"/>
+      <c r="CO3" s="17">
         <v>8</v>
       </c>
-      <c r="CP3" s="10" t="s">
+      <c r="CP3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CQ3" s="10" t="s">
+      <c r="CQ3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CR3" s="10" t="s">
+      <c r="CR3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CS3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT3" s="10" t="s">
+      <c r="CS3" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CU3" s="10" t="s">
+      <c r="CU3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CV3" s="10" t="s">
+      <c r="CV3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CW3" s="10" t="s">
+      <c r="CW3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CX3" s="10" t="s">
+      <c r="CX3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CY3" s="10">
+      <c r="CY3" s="17">
         <v>27.1</v>
       </c>
-      <c r="CZ3" s="10">
+      <c r="CZ3" s="17">
         <v>33.7</v>
       </c>
-      <c r="DA3" s="10">
+      <c r="DA3" s="17">
         <v>33.7</v>
       </c>
-      <c r="DB3" s="10">
+      <c r="DB3" s="17">
         <v>33.7</v>
       </c>
-      <c r="DC3" s="10">
+      <c r="DC3" s="17">
         <v>33.7</v>
       </c>
-      <c r="DD3" s="10">
+      <c r="DD3" s="17">
         <v>33.7</v>
       </c>
-      <c r="DE3" s="10">
+      <c r="DE3" s="17">
         <v>33.7</v>
       </c>
-      <c r="DF3" s="10">
+      <c r="DF3" s="17">
         <v>33.7</v>
       </c>
-      <c r="DG3" s="10">
+      <c r="DG3" s="17">
         <v>33.7</v>
       </c>
-      <c r="DH3" s="10">
+      <c r="DH3" s="17">
         <v>22826000</v>
       </c>
-      <c r="DI3" s="10">
+      <c r="DI3" s="17">
         <v>3260800</v>
       </c>
-      <c r="DJ3" s="10" t="s">
+      <c r="DJ3" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="DK3" s="10">
+      <c r="DK3" s="17">
         <v>0</v>
       </c>
-      <c r="DL3" s="10" t="s">
+      <c r="DL3" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="DM3" s="10" t="s">
+      <c r="DM3" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="DN3" s="10" t="s">
+      <c r="DN3" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="DO3" s="10" t="s">
+      <c r="DO3" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="DP3" s="10" t="s">
+      <c r="DP3" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="DQ3" s="10" t="s">
+      <c r="DQ3" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="DR3" s="10"/>
-      <c r="DS3" s="10"/>
-      <c r="DT3" s="10" t="s">
+      <c r="DR3" s="17"/>
+      <c r="DS3" s="17"/>
+      <c r="DT3" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -2612,212 +2613,212 @@
       <c r="AX4" s="13"/>
       <c r="AY4" s="11"/>
       <c r="AZ4" s="14"/>
-      <c r="BA4" s="10" t="s">
+      <c r="BA4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BB4" s="10" t="s">
+      <c r="BB4" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BC4" s="10" t="s">
+      <c r="BC4" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BD4" s="10">
+      <c r="BD4" s="17">
         <v>5</v>
       </c>
-      <c r="BE4" s="10">
+      <c r="BE4" s="17">
         <v>5</v>
       </c>
-      <c r="BF4" s="10">
+      <c r="BF4" s="17">
         <v>5</v>
       </c>
-      <c r="BG4" s="10">
+      <c r="BG4" s="17">
         <v>4</v>
       </c>
-      <c r="BH4" s="10">
+      <c r="BH4" s="17">
         <v>5</v>
       </c>
-      <c r="BI4" s="10">
+      <c r="BI4" s="17">
         <v>4</v>
       </c>
-      <c r="BJ4" s="10">
+      <c r="BJ4" s="17">
         <v>5</v>
       </c>
-      <c r="BK4" s="10">
+      <c r="BK4" s="17">
         <v>4</v>
       </c>
-      <c r="BL4" s="10">
+      <c r="BL4" s="17">
         <v>4</v>
       </c>
-      <c r="BM4" s="10">
+      <c r="BM4" s="17">
         <v>4</v>
       </c>
-      <c r="BN4" s="10">
+      <c r="BN4" s="17">
         <v>5</v>
       </c>
-      <c r="BO4" s="10">
+      <c r="BO4" s="17">
         <v>2</v>
       </c>
-      <c r="BP4" s="10">
+      <c r="BP4" s="17">
         <v>4</v>
       </c>
-      <c r="BQ4" s="10">
+      <c r="BQ4" s="17">
         <v>5</v>
       </c>
-      <c r="BR4" s="10">
+      <c r="BR4" s="17">
         <v>4</v>
       </c>
-      <c r="BS4" s="10">
+      <c r="BS4" s="17">
         <v>5</v>
       </c>
-      <c r="BT4" s="10">
+      <c r="BT4" s="17">
         <v>4</v>
       </c>
-      <c r="BU4" s="10">
+      <c r="BU4" s="17">
         <v>4</v>
       </c>
-      <c r="BV4" s="10">
+      <c r="BV4" s="17">
         <v>4</v>
       </c>
-      <c r="BW4" s="10">
+      <c r="BW4" s="17">
         <v>5</v>
       </c>
-      <c r="BX4" s="10">
+      <c r="BX4" s="17">
         <v>2</v>
       </c>
-      <c r="BY4" s="10">
+      <c r="BY4" s="17">
         <v>4</v>
       </c>
-      <c r="BZ4" s="10">
+      <c r="BZ4" s="17">
         <v>5</v>
       </c>
-      <c r="CA4" s="10">
+      <c r="CA4" s="17">
         <v>4</v>
       </c>
-      <c r="CB4" s="10">
+      <c r="CB4" s="17">
         <v>5</v>
       </c>
-      <c r="CC4" s="10">
+      <c r="CC4" s="17">
         <v>4</v>
       </c>
-      <c r="CD4" s="10">
+      <c r="CD4" s="17">
         <v>4</v>
       </c>
-      <c r="CE4" s="10">
+      <c r="CE4" s="17">
         <v>4</v>
       </c>
-      <c r="CF4" s="10">
+      <c r="CF4" s="17">
         <v>5</v>
       </c>
-      <c r="CG4" s="10">
+      <c r="CG4" s="17">
         <v>2</v>
       </c>
-      <c r="CH4" s="10">
+      <c r="CH4" s="17">
         <v>4.3</v>
       </c>
-      <c r="CI4" s="10">
+      <c r="CI4" s="17">
         <v>4.3</v>
       </c>
-      <c r="CJ4" s="10" t="s">
+      <c r="CJ4" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="CK4" s="10">
+      <c r="CK4" s="17">
         <v>68.5</v>
       </c>
-      <c r="CL4" s="10">
+      <c r="CL4" s="17">
         <v>8</v>
       </c>
-      <c r="CM4" s="10"/>
-      <c r="CN4" s="10"/>
-      <c r="CO4" s="10">
+      <c r="CM4" s="17"/>
+      <c r="CN4" s="17"/>
+      <c r="CO4" s="17">
         <v>29</v>
       </c>
-      <c r="CP4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY4" s="10">
+      <c r="CP4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY4" s="17">
         <v>3.2</v>
       </c>
-      <c r="CZ4" s="10">
+      <c r="CZ4" s="17">
         <v>4.3</v>
       </c>
-      <c r="DA4" s="10">
+      <c r="DA4" s="17">
         <v>3.7</v>
       </c>
-      <c r="DB4" s="10">
+      <c r="DB4" s="17">
         <v>4.3</v>
       </c>
-      <c r="DC4" s="10">
+      <c r="DC4" s="17">
         <v>3.6</v>
       </c>
-      <c r="DD4" s="10">
+      <c r="DD4" s="17">
         <v>3.4</v>
       </c>
-      <c r="DE4" s="10">
+      <c r="DE4" s="17">
         <v>3.6</v>
       </c>
-      <c r="DF4" s="10">
+      <c r="DF4" s="17">
         <v>4.3</v>
       </c>
-      <c r="DG4" s="10">
+      <c r="DG4" s="17">
         <v>1.6</v>
       </c>
-      <c r="DH4" s="10">
+      <c r="DH4" s="17">
         <v>126780000</v>
       </c>
-      <c r="DI4" s="10">
+      <c r="DI4" s="17">
         <v>48762</v>
       </c>
-      <c r="DJ4" s="10" t="s">
+      <c r="DJ4" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="DK4" s="10">
+      <c r="DK4" s="17">
         <v>10</v>
       </c>
-      <c r="DL4" s="10" t="s">
+      <c r="DL4" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="DM4" s="10" t="s">
+      <c r="DM4" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="DN4" s="10" t="s">
+      <c r="DN4" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="DO4" s="10" t="s">
+      <c r="DO4" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="DP4" s="10" t="s">
+      <c r="DP4" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="DQ4" s="10" t="s">
+      <c r="DQ4" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="DR4" s="10"/>
-      <c r="DS4" s="10"/>
-      <c r="DT4" s="10" t="s">
+      <c r="DR4" s="17"/>
+      <c r="DS4" s="17"/>
+      <c r="DT4" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -2970,214 +2971,214 @@
       <c r="AX5" s="13"/>
       <c r="AY5" s="11"/>
       <c r="AZ5" s="14"/>
-      <c r="BA5" s="10" t="s">
+      <c r="BA5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="BB5" s="10" t="s">
+      <c r="BB5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="BC5" s="10" t="s">
+      <c r="BC5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="BD5" s="10">
+      <c r="BD5" s="17">
         <v>4</v>
       </c>
-      <c r="BE5" s="10">
+      <c r="BE5" s="17">
         <v>4</v>
       </c>
-      <c r="BF5" s="10">
+      <c r="BF5" s="17">
         <v>4</v>
       </c>
-      <c r="BG5" s="10">
+      <c r="BG5" s="17">
         <v>3</v>
       </c>
-      <c r="BH5" s="10">
+      <c r="BH5" s="17">
         <v>3</v>
       </c>
-      <c r="BI5" s="10">
+      <c r="BI5" s="17">
         <v>3</v>
       </c>
-      <c r="BJ5" s="10">
+      <c r="BJ5" s="17">
         <v>4</v>
       </c>
-      <c r="BK5" s="10">
+      <c r="BK5" s="17">
         <v>4</v>
       </c>
-      <c r="BL5" s="10">
+      <c r="BL5" s="17">
         <v>2</v>
       </c>
-      <c r="BM5" s="10">
+      <c r="BM5" s="17">
         <v>3</v>
       </c>
-      <c r="BN5" s="10">
+      <c r="BN5" s="17">
         <v>2</v>
       </c>
-      <c r="BO5" s="10">
+      <c r="BO5" s="17">
         <v>3</v>
       </c>
-      <c r="BP5" s="10">
+      <c r="BP5" s="17">
         <v>3</v>
       </c>
-      <c r="BQ5" s="10">
+      <c r="BQ5" s="17">
         <v>3</v>
       </c>
-      <c r="BR5" s="10">
+      <c r="BR5" s="17">
         <v>3</v>
       </c>
-      <c r="BS5" s="10">
+      <c r="BS5" s="17">
         <v>4</v>
       </c>
-      <c r="BT5" s="10">
+      <c r="BT5" s="17">
         <v>4</v>
       </c>
-      <c r="BU5" s="10">
+      <c r="BU5" s="17">
         <v>2</v>
       </c>
-      <c r="BV5" s="10">
+      <c r="BV5" s="17">
         <v>3</v>
       </c>
-      <c r="BW5" s="10">
+      <c r="BW5" s="17">
         <v>2</v>
       </c>
-      <c r="BX5" s="10">
+      <c r="BX5" s="17">
         <v>3</v>
       </c>
-      <c r="BY5" s="10">
+      <c r="BY5" s="17">
         <v>3</v>
       </c>
-      <c r="BZ5" s="10">
+      <c r="BZ5" s="17">
         <v>3</v>
       </c>
-      <c r="CA5" s="10">
+      <c r="CA5" s="17">
         <v>3</v>
       </c>
-      <c r="CB5" s="10">
+      <c r="CB5" s="17">
         <v>4</v>
       </c>
-      <c r="CC5" s="10">
+      <c r="CC5" s="17">
         <v>4</v>
       </c>
-      <c r="CD5" s="10">
+      <c r="CD5" s="17">
         <v>2</v>
       </c>
-      <c r="CE5" s="10">
+      <c r="CE5" s="17">
         <v>3</v>
       </c>
-      <c r="CF5" s="10">
+      <c r="CF5" s="17">
         <v>2</v>
       </c>
-      <c r="CG5" s="10">
+      <c r="CG5" s="17">
         <v>3</v>
       </c>
-      <c r="CH5" s="10">
+      <c r="CH5" s="17">
         <v>8.6</v>
       </c>
-      <c r="CI5" s="10">
+      <c r="CI5" s="17">
         <v>8.6</v>
       </c>
-      <c r="CJ5" s="10" t="s">
+      <c r="CJ5" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="CK5" s="10">
+      <c r="CK5" s="17">
         <v>66.59999999999999</v>
       </c>
-      <c r="CL5" s="10">
+      <c r="CL5" s="17">
         <v>4</v>
       </c>
-      <c r="CM5" s="10"/>
-      <c r="CN5" s="10">
+      <c r="CM5" s="17"/>
+      <c r="CN5" s="17">
         <v>15</v>
       </c>
-      <c r="CO5" s="10">
+      <c r="CO5" s="17">
         <v>13</v>
       </c>
-      <c r="CP5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY5" s="10">
+      <c r="CP5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY5" s="17">
         <v>6</v>
       </c>
-      <c r="CZ5" s="10">
+      <c r="CZ5" s="17">
         <v>5.2</v>
       </c>
-      <c r="DA5" s="10">
+      <c r="DA5" s="17">
         <v>7.1</v>
       </c>
-      <c r="DB5" s="10">
+      <c r="DB5" s="17">
         <v>8.6</v>
       </c>
-      <c r="DC5" s="10">
+      <c r="DC5" s="17">
         <v>8.6</v>
       </c>
-      <c r="DD5" s="10">
+      <c r="DD5" s="17">
         <v>3.8</v>
       </c>
-      <c r="DE5" s="10">
+      <c r="DE5" s="17">
         <v>7.1</v>
       </c>
-      <c r="DF5" s="10">
+      <c r="DF5" s="17">
         <v>3.8</v>
       </c>
-      <c r="DG5" s="10">
+      <c r="DG5" s="17">
         <v>7.1</v>
       </c>
-      <c r="DH5" s="10">
+      <c r="DH5" s="17">
         <v>262610000</v>
       </c>
-      <c r="DI5" s="10">
+      <c r="DI5" s="17">
         <v>3447600</v>
       </c>
-      <c r="DJ5" s="10" t="s">
+      <c r="DJ5" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="DK5" s="10">
+      <c r="DK5" s="17">
         <v>11</v>
       </c>
-      <c r="DL5" s="10" t="s">
+      <c r="DL5" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="DM5" s="10" t="s">
+      <c r="DM5" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="DN5" s="10" t="s">
+      <c r="DN5" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="DO5" s="10" t="s">
+      <c r="DO5" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="DP5" s="10" t="s">
+      <c r="DP5" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="DQ5" s="10" t="s">
+      <c r="DQ5" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="DR5" s="10"/>
-      <c r="DS5" s="10"/>
-      <c r="DT5" s="10" t="s">
+      <c r="DR5" s="17"/>
+      <c r="DS5" s="17"/>
+      <c r="DT5" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3314,212 +3315,212 @@
       <c r="AX6" s="13"/>
       <c r="AY6" s="11"/>
       <c r="AZ6" s="14"/>
-      <c r="BA6" s="10" t="s">
+      <c r="BA6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB6" s="10" t="s">
+      <c r="BB6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BC6" s="10" t="s">
+      <c r="BC6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BD6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BX6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="10">
-        <v>1</v>
-      </c>
-      <c r="CA6" s="10">
-        <v>1</v>
-      </c>
-      <c r="CB6" s="10">
-        <v>1</v>
-      </c>
-      <c r="CC6" s="10">
-        <v>1</v>
-      </c>
-      <c r="CD6" s="10">
-        <v>1</v>
-      </c>
-      <c r="CE6" s="10">
-        <v>1</v>
-      </c>
-      <c r="CF6" s="10">
-        <v>1</v>
-      </c>
-      <c r="CG6" s="10">
-        <v>1</v>
-      </c>
-      <c r="CH6" s="10">
+      <c r="BD6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="17">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="17">
         <v>12.4</v>
       </c>
-      <c r="CI6" s="10">
+      <c r="CI6" s="17">
         <v>12.4</v>
       </c>
-      <c r="CJ6" s="10" t="s">
+      <c r="CJ6" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="CK6" s="10">
+      <c r="CK6" s="17">
         <v>70</v>
       </c>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="10">
+      <c r="CL6" s="17"/>
+      <c r="CM6" s="17"/>
+      <c r="CN6" s="17">
         <v>9</v>
       </c>
-      <c r="CO6" s="10">
+      <c r="CO6" s="17">
         <v>9</v>
       </c>
-      <c r="CP6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY6" s="10">
+      <c r="CP6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY6" s="17">
         <v>12.4</v>
       </c>
-      <c r="CZ6" s="10">
+      <c r="CZ6" s="17">
         <v>12.4</v>
       </c>
-      <c r="DA6" s="10">
+      <c r="DA6" s="17">
         <v>12.4</v>
       </c>
-      <c r="DB6" s="10">
+      <c r="DB6" s="17">
         <v>12.4</v>
       </c>
-      <c r="DC6" s="10">
+      <c r="DC6" s="17">
         <v>12.4</v>
       </c>
-      <c r="DD6" s="10">
+      <c r="DD6" s="17">
         <v>12.4</v>
       </c>
-      <c r="DE6" s="10">
+      <c r="DE6" s="17">
         <v>12.4</v>
       </c>
-      <c r="DF6" s="10">
+      <c r="DF6" s="17">
         <v>12.4</v>
       </c>
-      <c r="DG6" s="10">
+      <c r="DG6" s="17">
         <v>12.4</v>
       </c>
-      <c r="DH6" s="10">
+      <c r="DH6" s="17">
         <v>303250000</v>
       </c>
-      <c r="DI6" s="10">
+      <c r="DI6" s="17">
         <v>25271000</v>
       </c>
-      <c r="DJ6" s="10" t="s">
+      <c r="DJ6" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="DK6" s="10">
+      <c r="DK6" s="17">
         <v>12</v>
       </c>
-      <c r="DL6" s="10" t="s">
+      <c r="DL6" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="DM6" s="10" t="s">
+      <c r="DM6" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="DN6" s="10" t="s">
+      <c r="DN6" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="DO6" s="10" t="s">
+      <c r="DO6" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="DP6" s="10" t="s">
+      <c r="DP6" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="DQ6" s="10" t="s">
+      <c r="DQ6" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="DR6" s="10"/>
-      <c r="DS6" s="10"/>
-      <c r="DT6" s="10" t="s">
+      <c r="DR6" s="17"/>
+      <c r="DS6" s="17"/>
+      <c r="DT6" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3674,214 +3675,214 @@
       <c r="AX7" s="13"/>
       <c r="AY7" s="11"/>
       <c r="AZ7" s="14"/>
-      <c r="BA7" s="10" t="s">
+      <c r="BA7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BB7" s="10" t="s">
+      <c r="BB7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="BC7" s="10" t="s">
+      <c r="BC7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="BD7" s="10">
+      <c r="BD7" s="17">
         <v>4</v>
       </c>
-      <c r="BE7" s="10">
+      <c r="BE7" s="17">
         <v>4</v>
       </c>
-      <c r="BF7" s="10">
+      <c r="BF7" s="17">
         <v>4</v>
       </c>
-      <c r="BG7" s="10">
+      <c r="BG7" s="17">
         <v>2</v>
       </c>
-      <c r="BH7" s="10">
+      <c r="BH7" s="17">
         <v>2</v>
       </c>
-      <c r="BI7" s="10">
+      <c r="BI7" s="17">
         <v>4</v>
       </c>
-      <c r="BJ7" s="10">
+      <c r="BJ7" s="17">
         <v>3</v>
       </c>
-      <c r="BK7" s="10">
+      <c r="BK7" s="17">
         <v>2</v>
       </c>
-      <c r="BL7" s="10">
+      <c r="BL7" s="17">
         <v>2</v>
       </c>
-      <c r="BM7" s="10">
+      <c r="BM7" s="17">
         <v>3</v>
       </c>
-      <c r="BN7" s="10">
+      <c r="BN7" s="17">
         <v>3</v>
       </c>
-      <c r="BO7" s="10">
+      <c r="BO7" s="17">
         <v>2</v>
       </c>
-      <c r="BP7" s="10">
+      <c r="BP7" s="17">
         <v>2</v>
       </c>
-      <c r="BQ7" s="10">
+      <c r="BQ7" s="17">
         <v>2</v>
       </c>
-      <c r="BR7" s="10">
+      <c r="BR7" s="17">
         <v>4</v>
       </c>
-      <c r="BS7" s="10">
+      <c r="BS7" s="17">
         <v>3</v>
       </c>
-      <c r="BT7" s="10">
+      <c r="BT7" s="17">
         <v>2</v>
       </c>
-      <c r="BU7" s="10">
+      <c r="BU7" s="17">
         <v>2</v>
       </c>
-      <c r="BV7" s="10">
+      <c r="BV7" s="17">
         <v>3</v>
       </c>
-      <c r="BW7" s="10">
+      <c r="BW7" s="17">
         <v>3</v>
       </c>
-      <c r="BX7" s="10">
+      <c r="BX7" s="17">
         <v>2</v>
       </c>
-      <c r="BY7" s="10">
+      <c r="BY7" s="17">
         <v>2</v>
       </c>
-      <c r="BZ7" s="10">
+      <c r="BZ7" s="17">
         <v>2</v>
       </c>
-      <c r="CA7" s="10">
+      <c r="CA7" s="17">
         <v>4</v>
       </c>
-      <c r="CB7" s="10">
+      <c r="CB7" s="17">
         <v>3</v>
       </c>
-      <c r="CC7" s="10">
+      <c r="CC7" s="17">
         <v>2</v>
       </c>
-      <c r="CD7" s="10">
+      <c r="CD7" s="17">
         <v>2</v>
       </c>
-      <c r="CE7" s="10">
+      <c r="CE7" s="17">
         <v>3</v>
       </c>
-      <c r="CF7" s="10">
+      <c r="CF7" s="17">
         <v>3</v>
       </c>
-      <c r="CG7" s="10">
+      <c r="CG7" s="17">
         <v>2</v>
       </c>
-      <c r="CH7" s="10">
+      <c r="CH7" s="17">
         <v>9.699999999999999</v>
       </c>
-      <c r="CI7" s="10">
+      <c r="CI7" s="17">
         <v>9.699999999999999</v>
       </c>
-      <c r="CJ7" s="10" t="s">
+      <c r="CJ7" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="CK7" s="10">
+      <c r="CK7" s="17">
         <v>63.3</v>
       </c>
-      <c r="CL7" s="10"/>
-      <c r="CM7" s="10">
+      <c r="CL7" s="17"/>
+      <c r="CM7" s="17">
         <v>13</v>
       </c>
-      <c r="CN7" s="10">
-        <v>1</v>
-      </c>
-      <c r="CO7" s="10">
+      <c r="CN7" s="17">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="17">
         <v>9</v>
       </c>
-      <c r="CP7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV7" s="10" t="s">
+      <c r="CP7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV7" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CW7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY7" s="10">
+      <c r="CW7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY7" s="17">
         <v>4.5</v>
       </c>
-      <c r="CZ7" s="10">
+      <c r="CZ7" s="17">
         <v>4.5</v>
       </c>
-      <c r="DA7" s="10">
+      <c r="DA7" s="17">
         <v>9.699999999999999</v>
       </c>
-      <c r="DB7" s="10">
+      <c r="DB7" s="17">
         <v>7.7</v>
       </c>
-      <c r="DC7" s="10">
+      <c r="DC7" s="17">
         <v>4.5</v>
       </c>
-      <c r="DD7" s="10">
+      <c r="DD7" s="17">
         <v>4.5</v>
       </c>
-      <c r="DE7" s="10">
+      <c r="DE7" s="17">
         <v>7.7</v>
       </c>
-      <c r="DF7" s="10">
+      <c r="DF7" s="17">
         <v>7.7</v>
       </c>
-      <c r="DG7" s="10">
+      <c r="DG7" s="17">
         <v>4.5</v>
       </c>
-      <c r="DH7" s="10">
+      <c r="DH7" s="17">
         <v>133460000</v>
       </c>
-      <c r="DI7" s="10">
+      <c r="DI7" s="17">
         <v>2352200</v>
       </c>
-      <c r="DJ7" s="10" t="s">
+      <c r="DJ7" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="DK7" s="10">
+      <c r="DK7" s="17">
         <v>13</v>
       </c>
-      <c r="DL7" s="10" t="s">
+      <c r="DL7" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="DM7" s="10" t="s">
+      <c r="DM7" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="DN7" s="10" t="s">
+      <c r="DN7" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="DO7" s="10" t="s">
+      <c r="DO7" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="DP7" s="10" t="s">
+      <c r="DP7" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="DQ7" s="10" t="s">
+      <c r="DQ7" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="DR7" s="10"/>
-      <c r="DS7" s="10"/>
-      <c r="DT7" s="10" t="s">
+      <c r="DR7" s="17"/>
+      <c r="DS7" s="17"/>
+      <c r="DT7" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4010,206 +4011,206 @@
       <c r="AX8" s="13"/>
       <c r="AY8" s="11"/>
       <c r="AZ8" s="14"/>
-      <c r="BA8" s="10" t="s">
+      <c r="BA8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="BB8" s="10" t="s">
+      <c r="BB8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BC8" s="10" t="s">
+      <c r="BC8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BD8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BF8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="10">
+      <c r="BD8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="17">
         <v>0</v>
       </c>
-      <c r="BK8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BL8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="10">
+      <c r="BK8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="17">
         <v>0</v>
       </c>
-      <c r="BO8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="10">
+      <c r="BO8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="17">
         <v>0</v>
       </c>
-      <c r="BT8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="10">
+      <c r="BT8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="17">
         <v>0</v>
       </c>
-      <c r="BX8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="10">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="10">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="10">
+      <c r="BX8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="17">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="17">
         <v>0</v>
       </c>
-      <c r="CC8" s="10">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="10">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="10">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="10">
+      <c r="CC8" s="17">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="17">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="17">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="17">
         <v>0</v>
       </c>
-      <c r="CG8" s="10">
-        <v>1</v>
-      </c>
-      <c r="CH8" s="10">
+      <c r="CG8" s="17">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="17">
         <v>5</v>
       </c>
-      <c r="CI8" s="10">
+      <c r="CI8" s="17">
         <v>5</v>
       </c>
-      <c r="CJ8" s="10" t="s">
+      <c r="CJ8" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="CK8" s="10">
+      <c r="CK8" s="17">
         <v>65</v>
       </c>
-      <c r="CL8" s="10"/>
-      <c r="CM8" s="10"/>
-      <c r="CN8" s="10">
+      <c r="CL8" s="17"/>
+      <c r="CM8" s="17"/>
+      <c r="CN8" s="17">
         <v>7</v>
       </c>
-      <c r="CO8" s="10"/>
-      <c r="CP8" s="10" t="s">
+      <c r="CO8" s="17"/>
+      <c r="CP8" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CQ8" s="10" t="s">
+      <c r="CQ8" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CR8" s="10" t="s">
+      <c r="CR8" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CS8" s="10"/>
-      <c r="CT8" s="10" t="s">
+      <c r="CS8" s="17"/>
+      <c r="CT8" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CU8" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV8" s="10" t="s">
+      <c r="CU8" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV8" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CW8" s="10"/>
-      <c r="CX8" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY8" s="10">
+      <c r="CW8" s="17"/>
+      <c r="CX8" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY8" s="17">
         <v>5</v>
       </c>
-      <c r="CZ8" s="10">
+      <c r="CZ8" s="17">
         <v>5</v>
       </c>
-      <c r="DA8" s="10">
+      <c r="DA8" s="17">
         <v>5</v>
       </c>
-      <c r="DB8" s="10">
+      <c r="DB8" s="17">
         <v>0</v>
       </c>
-      <c r="DC8" s="10">
+      <c r="DC8" s="17">
         <v>5</v>
       </c>
-      <c r="DD8" s="10">
+      <c r="DD8" s="17">
         <v>5</v>
       </c>
-      <c r="DE8" s="10">
+      <c r="DE8" s="17">
         <v>5</v>
       </c>
-      <c r="DF8" s="10">
+      <c r="DF8" s="17">
         <v>0</v>
       </c>
-      <c r="DG8" s="10">
+      <c r="DG8" s="17">
         <v>5</v>
       </c>
-      <c r="DH8" s="10">
+      <c r="DH8" s="17">
         <v>55466000</v>
       </c>
-      <c r="DI8" s="10">
+      <c r="DI8" s="17">
         <v>4266600</v>
       </c>
-      <c r="DJ8" s="10" t="s">
+      <c r="DJ8" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="DK8" s="10">
+      <c r="DK8" s="17">
         <v>14</v>
       </c>
-      <c r="DL8" s="10" t="s">
+      <c r="DL8" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="DM8" s="10" t="s">
+      <c r="DM8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="DN8" s="10" t="s">
+      <c r="DN8" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="DO8" s="10" t="s">
+      <c r="DO8" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="DP8" s="10" t="s">
+      <c r="DP8" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="DQ8" s="10" t="s">
+      <c r="DQ8" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="DR8" s="10"/>
-      <c r="DS8" s="10"/>
-      <c r="DT8" s="10" t="s">
+      <c r="DR8" s="17"/>
+      <c r="DS8" s="17"/>
+      <c r="DT8" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4364,214 +4365,214 @@
       <c r="AX9" s="13"/>
       <c r="AY9" s="11"/>
       <c r="AZ9" s="14"/>
-      <c r="BA9" s="10" t="s">
+      <c r="BA9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="BB9" s="10" t="s">
+      <c r="BB9" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BC9" s="10" t="s">
+      <c r="BC9" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BD9" s="10">
+      <c r="BD9" s="17">
         <v>5</v>
       </c>
-      <c r="BE9" s="10">
+      <c r="BE9" s="17">
         <v>5</v>
       </c>
-      <c r="BF9" s="10">
+      <c r="BF9" s="17">
         <v>5</v>
       </c>
-      <c r="BG9" s="10">
+      <c r="BG9" s="17">
         <v>4</v>
       </c>
-      <c r="BH9" s="10">
+      <c r="BH9" s="17">
         <v>4</v>
       </c>
-      <c r="BI9" s="10">
+      <c r="BI9" s="17">
         <v>4</v>
       </c>
-      <c r="BJ9" s="10">
+      <c r="BJ9" s="17">
         <v>4</v>
       </c>
-      <c r="BK9" s="10">
+      <c r="BK9" s="17">
         <v>5</v>
       </c>
-      <c r="BL9" s="10">
+      <c r="BL9" s="17">
         <v>5</v>
       </c>
-      <c r="BM9" s="10">
+      <c r="BM9" s="17">
         <v>4</v>
       </c>
-      <c r="BN9" s="10">
+      <c r="BN9" s="17">
         <v>4</v>
       </c>
-      <c r="BO9" s="10">
+      <c r="BO9" s="17">
         <v>4</v>
       </c>
-      <c r="BP9" s="10">
+      <c r="BP9" s="17">
         <v>4</v>
       </c>
-      <c r="BQ9" s="10">
+      <c r="BQ9" s="17">
         <v>4</v>
       </c>
-      <c r="BR9" s="10">
+      <c r="BR9" s="17">
         <v>4</v>
       </c>
-      <c r="BS9" s="10">
+      <c r="BS9" s="17">
         <v>4</v>
       </c>
-      <c r="BT9" s="10">
+      <c r="BT9" s="17">
         <v>5</v>
       </c>
-      <c r="BU9" s="10">
+      <c r="BU9" s="17">
         <v>5</v>
       </c>
-      <c r="BV9" s="10">
+      <c r="BV9" s="17">
         <v>4</v>
       </c>
-      <c r="BW9" s="10">
+      <c r="BW9" s="17">
         <v>4</v>
       </c>
-      <c r="BX9" s="10">
+      <c r="BX9" s="17">
         <v>4</v>
       </c>
-      <c r="BY9" s="10">
+      <c r="BY9" s="17">
         <v>4</v>
       </c>
-      <c r="BZ9" s="10">
+      <c r="BZ9" s="17">
         <v>4</v>
       </c>
-      <c r="CA9" s="10">
+      <c r="CA9" s="17">
         <v>4</v>
       </c>
-      <c r="CB9" s="10">
+      <c r="CB9" s="17">
         <v>4</v>
       </c>
-      <c r="CC9" s="10">
+      <c r="CC9" s="17">
         <v>5</v>
       </c>
-      <c r="CD9" s="10">
+      <c r="CD9" s="17">
         <v>5</v>
       </c>
-      <c r="CE9" s="10">
+      <c r="CE9" s="17">
         <v>4</v>
       </c>
-      <c r="CF9" s="10">
+      <c r="CF9" s="17">
         <v>4</v>
       </c>
-      <c r="CG9" s="10">
+      <c r="CG9" s="17">
         <v>4</v>
       </c>
-      <c r="CH9" s="10">
+      <c r="CH9" s="17">
         <v>7</v>
       </c>
-      <c r="CI9" s="10">
+      <c r="CI9" s="17">
         <v>7</v>
       </c>
-      <c r="CJ9" s="10" t="s">
+      <c r="CJ9" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="CK9" s="10">
+      <c r="CK9" s="17">
         <v>66.09999999999999</v>
       </c>
-      <c r="CL9" s="10">
+      <c r="CL9" s="17">
         <v>9</v>
       </c>
-      <c r="CM9" s="10"/>
-      <c r="CN9" s="10">
+      <c r="CM9" s="17"/>
+      <c r="CN9" s="17">
         <v>7</v>
       </c>
-      <c r="CO9" s="10">
+      <c r="CO9" s="17">
         <v>22</v>
       </c>
-      <c r="CP9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY9" s="10">
+      <c r="CP9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY9" s="17">
         <v>5.9</v>
       </c>
-      <c r="CZ9" s="10">
+      <c r="CZ9" s="17">
         <v>5.9</v>
       </c>
-      <c r="DA9" s="10">
+      <c r="DA9" s="17">
         <v>5.9</v>
       </c>
-      <c r="DB9" s="10">
+      <c r="DB9" s="17">
         <v>5.9</v>
       </c>
-      <c r="DC9" s="10">
+      <c r="DC9" s="17">
         <v>7</v>
       </c>
-      <c r="DD9" s="10">
+      <c r="DD9" s="17">
         <v>7</v>
       </c>
-      <c r="DE9" s="10">
+      <c r="DE9" s="17">
         <v>6.1</v>
       </c>
-      <c r="DF9" s="10">
+      <c r="DF9" s="17">
         <v>5.9</v>
       </c>
-      <c r="DG9" s="10">
+      <c r="DG9" s="17">
         <v>6.1</v>
       </c>
-      <c r="DH9" s="10">
+      <c r="DH9" s="17">
         <v>311370000</v>
       </c>
-      <c r="DI9" s="10">
+      <c r="DI9" s="17">
         <v>4982400</v>
       </c>
-      <c r="DJ9" s="10" t="s">
+      <c r="DJ9" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="DK9" s="10">
+      <c r="DK9" s="17">
         <v>15</v>
       </c>
-      <c r="DL9" s="10" t="s">
+      <c r="DL9" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="DM9" s="10" t="s">
+      <c r="DM9" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="DN9" s="10" t="s">
+      <c r="DN9" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="DO9" s="10" t="s">
+      <c r="DO9" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="DP9" s="10" t="s">
+      <c r="DP9" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="DQ9" s="10" t="s">
+      <c r="DQ9" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="DR9" s="10"/>
-      <c r="DS9" s="10"/>
-      <c r="DT9" s="10" t="s">
+      <c r="DR9" s="17"/>
+      <c r="DS9" s="17"/>
+      <c r="DT9" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4712,212 +4713,212 @@
       <c r="AX10" s="13"/>
       <c r="AY10" s="11"/>
       <c r="AZ10" s="14"/>
-      <c r="BA10" s="10" t="s">
+      <c r="BA10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="BB10" s="10" t="s">
+      <c r="BB10" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="BC10" s="10" t="s">
+      <c r="BC10" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="BD10" s="10">
+      <c r="BD10" s="17">
         <v>4</v>
       </c>
-      <c r="BE10" s="10">
+      <c r="BE10" s="17">
         <v>3</v>
       </c>
-      <c r="BF10" s="10">
+      <c r="BF10" s="17">
         <v>3</v>
       </c>
-      <c r="BG10" s="10">
+      <c r="BG10" s="17">
         <v>3</v>
       </c>
-      <c r="BH10" s="10">
+      <c r="BH10" s="17">
         <v>3</v>
       </c>
-      <c r="BI10" s="10">
+      <c r="BI10" s="17">
         <v>3</v>
       </c>
-      <c r="BJ10" s="10">
+      <c r="BJ10" s="17">
         <v>3</v>
       </c>
-      <c r="BK10" s="10">
+      <c r="BK10" s="17">
         <v>3</v>
       </c>
-      <c r="BL10" s="10">
+      <c r="BL10" s="17">
         <v>3</v>
       </c>
-      <c r="BM10" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN10" s="10">
+      <c r="BM10" s="17">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="17">
         <v>2</v>
       </c>
-      <c r="BO10" s="10">
+      <c r="BO10" s="17">
         <v>2</v>
       </c>
-      <c r="BP10" s="10">
+      <c r="BP10" s="17">
         <v>2</v>
       </c>
-      <c r="BQ10" s="10">
+      <c r="BQ10" s="17">
         <v>2</v>
       </c>
-      <c r="BR10" s="10">
+      <c r="BR10" s="17">
         <v>2</v>
       </c>
-      <c r="BS10" s="10">
+      <c r="BS10" s="17">
         <v>2</v>
       </c>
-      <c r="BT10" s="10">
+      <c r="BT10" s="17">
         <v>2</v>
       </c>
-      <c r="BU10" s="10">
+      <c r="BU10" s="17">
         <v>2</v>
       </c>
-      <c r="BV10" s="10">
+      <c r="BV10" s="17">
         <v>0</v>
       </c>
-      <c r="BW10" s="10">
-        <v>1</v>
-      </c>
-      <c r="BX10" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY10" s="10">
+      <c r="BW10" s="17">
+        <v>1</v>
+      </c>
+      <c r="BX10" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="17">
         <v>2</v>
       </c>
-      <c r="BZ10" s="10">
+      <c r="BZ10" s="17">
         <v>2</v>
       </c>
-      <c r="CA10" s="10">
+      <c r="CA10" s="17">
         <v>2</v>
       </c>
-      <c r="CB10" s="10">
+      <c r="CB10" s="17">
         <v>2</v>
       </c>
-      <c r="CC10" s="10">
+      <c r="CC10" s="17">
         <v>2</v>
       </c>
-      <c r="CD10" s="10">
+      <c r="CD10" s="17">
         <v>2</v>
       </c>
-      <c r="CE10" s="10">
+      <c r="CE10" s="17">
         <v>0</v>
       </c>
-      <c r="CF10" s="10">
-        <v>1</v>
-      </c>
-      <c r="CG10" s="10">
-        <v>1</v>
-      </c>
-      <c r="CH10" s="10">
+      <c r="CF10" s="17">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="17">
+        <v>1</v>
+      </c>
+      <c r="CH10" s="17">
         <v>10.6</v>
       </c>
-      <c r="CI10" s="10">
+      <c r="CI10" s="17">
         <v>10.6</v>
       </c>
-      <c r="CJ10" s="10" t="s">
+      <c r="CJ10" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="CK10" s="10">
+      <c r="CK10" s="17">
         <v>63.6</v>
       </c>
-      <c r="CL10" s="10"/>
-      <c r="CM10" s="10">
+      <c r="CL10" s="17"/>
+      <c r="CM10" s="17">
         <v>8</v>
       </c>
-      <c r="CN10" s="10"/>
-      <c r="CO10" s="10">
+      <c r="CN10" s="17"/>
+      <c r="CO10" s="17">
         <v>6</v>
       </c>
-      <c r="CP10" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ10" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR10" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS10" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT10" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU10" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV10" s="10" t="s">
+      <c r="CP10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV10" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CW10" s="10" t="s">
+      <c r="CW10" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CX10" s="10" t="s">
+      <c r="CX10" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CY10" s="10">
+      <c r="CY10" s="17">
         <v>9</v>
       </c>
-      <c r="CZ10" s="10">
+      <c r="CZ10" s="17">
         <v>9.4</v>
       </c>
-      <c r="DA10" s="10">
+      <c r="DA10" s="17">
         <v>9</v>
       </c>
-      <c r="DB10" s="10">
+      <c r="DB10" s="17">
         <v>9</v>
       </c>
-      <c r="DC10" s="10">
+      <c r="DC10" s="17">
         <v>9</v>
       </c>
-      <c r="DD10" s="10">
+      <c r="DD10" s="17">
         <v>9</v>
       </c>
-      <c r="DE10" s="10">
+      <c r="DE10" s="17">
         <v>1.7</v>
       </c>
-      <c r="DF10" s="10">
+      <c r="DF10" s="17">
         <v>6.2</v>
       </c>
-      <c r="DG10" s="10">
+      <c r="DG10" s="17">
         <v>6.2</v>
       </c>
-      <c r="DH10" s="10">
+      <c r="DH10" s="17">
         <v>106960000</v>
       </c>
-      <c r="DI10" s="10">
+      <c r="DI10" s="17">
         <v>4861700</v>
       </c>
-      <c r="DJ10" s="10" t="s">
+      <c r="DJ10" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="DK10" s="10">
+      <c r="DK10" s="17">
         <v>16</v>
       </c>
-      <c r="DL10" s="10" t="s">
+      <c r="DL10" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="DM10" s="10" t="s">
+      <c r="DM10" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="DN10" s="10" t="s">
+      <c r="DN10" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="DO10" s="10" t="s">
+      <c r="DO10" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="DP10" s="10" t="s">
+      <c r="DP10" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="DQ10" s="10" t="s">
+      <c r="DQ10" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="DR10" s="10"/>
-      <c r="DS10" s="10"/>
-      <c r="DT10" s="10" t="s">
+      <c r="DR10" s="17"/>
+      <c r="DS10" s="17"/>
+      <c r="DT10" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5072,216 +5073,216 @@
       <c r="AX11" s="13"/>
       <c r="AY11" s="11"/>
       <c r="AZ11" s="14"/>
-      <c r="BA11" s="10" t="s">
+      <c r="BA11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="BB11" s="10" t="s">
+      <c r="BB11" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="BC11" s="10" t="s">
+      <c r="BC11" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="BD11" s="10">
+      <c r="BD11" s="17">
         <v>10</v>
       </c>
-      <c r="BE11" s="10">
+      <c r="BE11" s="17">
         <v>10</v>
       </c>
-      <c r="BF11" s="10">
+      <c r="BF11" s="17">
         <v>10</v>
       </c>
-      <c r="BG11" s="10">
+      <c r="BG11" s="17">
         <v>10</v>
       </c>
-      <c r="BH11" s="10">
+      <c r="BH11" s="17">
         <v>9</v>
       </c>
-      <c r="BI11" s="10">
+      <c r="BI11" s="17">
         <v>9</v>
       </c>
-      <c r="BJ11" s="10">
+      <c r="BJ11" s="17">
         <v>10</v>
       </c>
-      <c r="BK11" s="10">
+      <c r="BK11" s="17">
         <v>9</v>
       </c>
-      <c r="BL11" s="10">
+      <c r="BL11" s="17">
         <v>10</v>
       </c>
-      <c r="BM11" s="10">
+      <c r="BM11" s="17">
         <v>10</v>
       </c>
-      <c r="BN11" s="10">
+      <c r="BN11" s="17">
         <v>9</v>
       </c>
-      <c r="BO11" s="10">
+      <c r="BO11" s="17">
         <v>8</v>
       </c>
-      <c r="BP11" s="10">
+      <c r="BP11" s="17">
         <v>10</v>
       </c>
-      <c r="BQ11" s="10">
+      <c r="BQ11" s="17">
         <v>9</v>
       </c>
-      <c r="BR11" s="10">
+      <c r="BR11" s="17">
         <v>9</v>
       </c>
-      <c r="BS11" s="10">
+      <c r="BS11" s="17">
         <v>10</v>
       </c>
-      <c r="BT11" s="10">
+      <c r="BT11" s="17">
         <v>9</v>
       </c>
-      <c r="BU11" s="10">
+      <c r="BU11" s="17">
         <v>10</v>
       </c>
-      <c r="BV11" s="10">
+      <c r="BV11" s="17">
         <v>10</v>
       </c>
-      <c r="BW11" s="10">
+      <c r="BW11" s="17">
         <v>9</v>
       </c>
-      <c r="BX11" s="10">
+      <c r="BX11" s="17">
         <v>8</v>
       </c>
-      <c r="BY11" s="10">
+      <c r="BY11" s="17">
         <v>10</v>
       </c>
-      <c r="BZ11" s="10">
+      <c r="BZ11" s="17">
         <v>9</v>
       </c>
-      <c r="CA11" s="10">
+      <c r="CA11" s="17">
         <v>9</v>
       </c>
-      <c r="CB11" s="10">
+      <c r="CB11" s="17">
         <v>10</v>
       </c>
-      <c r="CC11" s="10">
+      <c r="CC11" s="17">
         <v>9</v>
       </c>
-      <c r="CD11" s="10">
+      <c r="CD11" s="17">
         <v>10</v>
       </c>
-      <c r="CE11" s="10">
+      <c r="CE11" s="17">
         <v>10</v>
       </c>
-      <c r="CF11" s="10">
+      <c r="CF11" s="17">
         <v>9</v>
       </c>
-      <c r="CG11" s="10">
+      <c r="CG11" s="17">
         <v>8</v>
       </c>
-      <c r="CH11" s="10">
+      <c r="CH11" s="17">
         <v>25.2</v>
       </c>
-      <c r="CI11" s="10">
+      <c r="CI11" s="17">
         <v>25.2</v>
       </c>
-      <c r="CJ11" s="10" t="s">
+      <c r="CJ11" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="CK11" s="10">
+      <c r="CK11" s="17">
         <v>59.1</v>
       </c>
-      <c r="CL11" s="10">
+      <c r="CL11" s="17">
         <v>26</v>
       </c>
-      <c r="CM11" s="10">
+      <c r="CM11" s="17">
         <v>31</v>
       </c>
-      <c r="CN11" s="10">
+      <c r="CN11" s="17">
         <v>36</v>
       </c>
-      <c r="CO11" s="10">
+      <c r="CO11" s="17">
         <v>18</v>
       </c>
-      <c r="CP11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY11" s="10">
+      <c r="CP11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY11" s="17">
         <v>25.2</v>
       </c>
-      <c r="CZ11" s="10">
+      <c r="CZ11" s="17">
         <v>21.4</v>
       </c>
-      <c r="DA11" s="10">
+      <c r="DA11" s="17">
         <v>22.5</v>
       </c>
-      <c r="DB11" s="10">
+      <c r="DB11" s="17">
         <v>25.2</v>
       </c>
-      <c r="DC11" s="10">
+      <c r="DC11" s="17">
         <v>21.4</v>
       </c>
-      <c r="DD11" s="10">
+      <c r="DD11" s="17">
         <v>25.2</v>
       </c>
-      <c r="DE11" s="10">
+      <c r="DE11" s="17">
         <v>25.2</v>
       </c>
-      <c r="DF11" s="10">
+      <c r="DF11" s="17">
         <v>21.8</v>
       </c>
-      <c r="DG11" s="10">
+      <c r="DG11" s="17">
         <v>18</v>
       </c>
-      <c r="DH11" s="10">
+      <c r="DH11" s="17">
         <v>2347500000</v>
       </c>
-      <c r="DI11" s="10">
+      <c r="DI11" s="17">
         <v>16204000</v>
       </c>
-      <c r="DJ11" s="10" t="s">
+      <c r="DJ11" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="DK11" s="10">
+      <c r="DK11" s="17">
         <v>17</v>
       </c>
-      <c r="DL11" s="10" t="s">
+      <c r="DL11" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="DM11" s="10" t="s">
+      <c r="DM11" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="DN11" s="10" t="s">
+      <c r="DN11" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="DO11" s="10" t="s">
+      <c r="DO11" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="DP11" s="10" t="s">
+      <c r="DP11" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="DQ11" s="10" t="s">
+      <c r="DQ11" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="DR11" s="10"/>
-      <c r="DS11" s="10"/>
-      <c r="DT11" s="10" t="s">
+      <c r="DR11" s="17"/>
+      <c r="DS11" s="17"/>
+      <c r="DT11" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5418,212 +5419,212 @@
       <c r="AX12" s="13"/>
       <c r="AY12" s="11"/>
       <c r="AZ12" s="14"/>
-      <c r="BA12" s="10" t="s">
+      <c r="BA12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="BB12" s="10" t="s">
+      <c r="BB12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BC12" s="10" t="s">
+      <c r="BC12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BD12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BM12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BQ12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BT12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BU12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BV12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BW12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BX12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY12" s="10">
-        <v>1</v>
-      </c>
-      <c r="BZ12" s="10">
-        <v>1</v>
-      </c>
-      <c r="CA12" s="10">
-        <v>1</v>
-      </c>
-      <c r="CB12" s="10">
-        <v>1</v>
-      </c>
-      <c r="CC12" s="10">
-        <v>1</v>
-      </c>
-      <c r="CD12" s="10">
-        <v>1</v>
-      </c>
-      <c r="CE12" s="10">
-        <v>1</v>
-      </c>
-      <c r="CF12" s="10">
-        <v>1</v>
-      </c>
-      <c r="CG12" s="10">
-        <v>1</v>
-      </c>
-      <c r="CH12" s="10">
+      <c r="BD12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="17">
+        <v>1</v>
+      </c>
+      <c r="BZ12" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA12" s="17">
+        <v>1</v>
+      </c>
+      <c r="CB12" s="17">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="17">
+        <v>1</v>
+      </c>
+      <c r="CD12" s="17">
+        <v>1</v>
+      </c>
+      <c r="CE12" s="17">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="17">
+        <v>1</v>
+      </c>
+      <c r="CG12" s="17">
+        <v>1</v>
+      </c>
+      <c r="CH12" s="17">
         <v>14.9</v>
       </c>
-      <c r="CI12" s="10">
+      <c r="CI12" s="17">
         <v>14.9</v>
       </c>
-      <c r="CJ12" s="10" t="s">
+      <c r="CJ12" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="CK12" s="10">
+      <c r="CK12" s="17">
         <v>71</v>
       </c>
-      <c r="CL12" s="10"/>
-      <c r="CM12" s="10"/>
-      <c r="CN12" s="10">
+      <c r="CL12" s="17"/>
+      <c r="CM12" s="17"/>
+      <c r="CN12" s="17">
         <v>6</v>
       </c>
-      <c r="CO12" s="10">
+      <c r="CO12" s="17">
         <v>9</v>
       </c>
-      <c r="CP12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW12" s="10" t="s">
+      <c r="CP12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW12" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CX12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY12" s="10">
+      <c r="CX12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY12" s="17">
         <v>14.9</v>
       </c>
-      <c r="CZ12" s="10">
+      <c r="CZ12" s="17">
         <v>14.9</v>
       </c>
-      <c r="DA12" s="10">
+      <c r="DA12" s="17">
         <v>14.9</v>
       </c>
-      <c r="DB12" s="10">
+      <c r="DB12" s="17">
         <v>14.9</v>
       </c>
-      <c r="DC12" s="10">
+      <c r="DC12" s="17">
         <v>14.9</v>
       </c>
-      <c r="DD12" s="10">
+      <c r="DD12" s="17">
         <v>14.9</v>
       </c>
-      <c r="DE12" s="10">
+      <c r="DE12" s="17">
         <v>14.9</v>
       </c>
-      <c r="DF12" s="10">
+      <c r="DF12" s="17">
         <v>14.9</v>
       </c>
-      <c r="DG12" s="10">
+      <c r="DG12" s="17">
         <v>14.9</v>
       </c>
-      <c r="DH12" s="10">
+      <c r="DH12" s="17">
         <v>48926000</v>
       </c>
-      <c r="DI12" s="10">
+      <c r="DI12" s="17">
         <v>12231000</v>
       </c>
-      <c r="DJ12" s="10" t="s">
+      <c r="DJ12" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="DK12" s="10">
+      <c r="DK12" s="17">
         <v>18</v>
       </c>
-      <c r="DL12" s="10" t="s">
+      <c r="DL12" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="DM12" s="10" t="s">
+      <c r="DM12" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="DN12" s="10" t="s">
+      <c r="DN12" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="DO12" s="10" t="s">
+      <c r="DO12" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="DP12" s="10" t="s">
+      <c r="DP12" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="DQ12" s="10" t="s">
+      <c r="DQ12" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="DR12" s="10"/>
-      <c r="DS12" s="10"/>
-      <c r="DT12" s="10" t="s">
+      <c r="DR12" s="17"/>
+      <c r="DS12" s="17"/>
+      <c r="DT12" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5778,214 +5779,214 @@
       <c r="AX13" s="13"/>
       <c r="AY13" s="11"/>
       <c r="AZ13" s="14"/>
-      <c r="BA13" s="10" t="s">
+      <c r="BA13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="BB13" s="10" t="s">
+      <c r="BB13" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="BC13" s="10" t="s">
+      <c r="BC13" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="BD13" s="10">
+      <c r="BD13" s="17">
         <v>3</v>
       </c>
-      <c r="BE13" s="10">
+      <c r="BE13" s="17">
         <v>3</v>
       </c>
-      <c r="BF13" s="10">
+      <c r="BF13" s="17">
         <v>3</v>
       </c>
-      <c r="BG13" s="10">
+      <c r="BG13" s="17">
         <v>3</v>
       </c>
-      <c r="BH13" s="10">
+      <c r="BH13" s="17">
         <v>3</v>
       </c>
-      <c r="BI13" s="10">
+      <c r="BI13" s="17">
         <v>3</v>
       </c>
-      <c r="BJ13" s="10">
+      <c r="BJ13" s="17">
         <v>3</v>
       </c>
-      <c r="BK13" s="10">
+      <c r="BK13" s="17">
         <v>3</v>
       </c>
-      <c r="BL13" s="10">
+      <c r="BL13" s="17">
         <v>3</v>
       </c>
-      <c r="BM13" s="10">
+      <c r="BM13" s="17">
         <v>3</v>
       </c>
-      <c r="BN13" s="10">
+      <c r="BN13" s="17">
         <v>3</v>
       </c>
-      <c r="BO13" s="10">
+      <c r="BO13" s="17">
         <v>3</v>
       </c>
-      <c r="BP13" s="10">
+      <c r="BP13" s="17">
         <v>3</v>
       </c>
-      <c r="BQ13" s="10">
+      <c r="BQ13" s="17">
         <v>3</v>
       </c>
-      <c r="BR13" s="10">
+      <c r="BR13" s="17">
         <v>3</v>
       </c>
-      <c r="BS13" s="10">
+      <c r="BS13" s="17">
         <v>3</v>
       </c>
-      <c r="BT13" s="10">
+      <c r="BT13" s="17">
         <v>3</v>
       </c>
-      <c r="BU13" s="10">
+      <c r="BU13" s="17">
         <v>3</v>
       </c>
-      <c r="BV13" s="10">
+      <c r="BV13" s="17">
         <v>3</v>
       </c>
-      <c r="BW13" s="10">
+      <c r="BW13" s="17">
         <v>3</v>
       </c>
-      <c r="BX13" s="10">
+      <c r="BX13" s="17">
         <v>3</v>
       </c>
-      <c r="BY13" s="10">
+      <c r="BY13" s="17">
         <v>3</v>
       </c>
-      <c r="BZ13" s="10">
+      <c r="BZ13" s="17">
         <v>3</v>
       </c>
-      <c r="CA13" s="10">
+      <c r="CA13" s="17">
         <v>3</v>
       </c>
-      <c r="CB13" s="10">
+      <c r="CB13" s="17">
         <v>3</v>
       </c>
-      <c r="CC13" s="10">
+      <c r="CC13" s="17">
         <v>3</v>
       </c>
-      <c r="CD13" s="10">
+      <c r="CD13" s="17">
         <v>3</v>
       </c>
-      <c r="CE13" s="10">
+      <c r="CE13" s="17">
         <v>3</v>
       </c>
-      <c r="CF13" s="10">
+      <c r="CF13" s="17">
         <v>3</v>
       </c>
-      <c r="CG13" s="10">
+      <c r="CG13" s="17">
         <v>3</v>
       </c>
-      <c r="CH13" s="10">
+      <c r="CH13" s="17">
         <v>5.2</v>
       </c>
-      <c r="CI13" s="10">
+      <c r="CI13" s="17">
         <v>5.2</v>
       </c>
-      <c r="CJ13" s="10" t="s">
+      <c r="CJ13" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="CK13" s="10">
+      <c r="CK13" s="17">
         <v>65.7</v>
       </c>
-      <c r="CL13" s="10"/>
-      <c r="CM13" s="10">
+      <c r="CL13" s="17"/>
+      <c r="CM13" s="17">
         <v>6</v>
       </c>
-      <c r="CN13" s="10">
+      <c r="CN13" s="17">
         <v>26</v>
       </c>
-      <c r="CO13" s="10">
+      <c r="CO13" s="17">
         <v>9</v>
       </c>
-      <c r="CP13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY13" s="10">
+      <c r="CP13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY13" s="17">
         <v>5.2</v>
       </c>
-      <c r="CZ13" s="10">
+      <c r="CZ13" s="17">
         <v>5.2</v>
       </c>
-      <c r="DA13" s="10">
+      <c r="DA13" s="17">
         <v>5.2</v>
       </c>
-      <c r="DB13" s="10">
+      <c r="DB13" s="17">
         <v>5.2</v>
       </c>
-      <c r="DC13" s="10">
+      <c r="DC13" s="17">
         <v>5.2</v>
       </c>
-      <c r="DD13" s="10">
+      <c r="DD13" s="17">
         <v>5.2</v>
       </c>
-      <c r="DE13" s="10">
+      <c r="DE13" s="17">
         <v>5.2</v>
       </c>
-      <c r="DF13" s="10">
+      <c r="DF13" s="17">
         <v>5.2</v>
       </c>
-      <c r="DG13" s="10">
+      <c r="DG13" s="17">
         <v>5.2</v>
       </c>
-      <c r="DH13" s="10">
+      <c r="DH13" s="17">
         <v>295950000</v>
       </c>
-      <c r="DI13" s="10">
+      <c r="DI13" s="17">
         <v>9248400</v>
       </c>
-      <c r="DJ13" s="10" t="s">
+      <c r="DJ13" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="DK13" s="10">
+      <c r="DK13" s="17">
         <v>7753</v>
       </c>
-      <c r="DL13" s="10" t="s">
+      <c r="DL13" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="DM13" s="10" t="s">
+      <c r="DM13" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="DN13" s="10" t="s">
+      <c r="DN13" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="DO13" s="10" t="s">
+      <c r="DO13" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="DP13" s="10" t="s">
+      <c r="DP13" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="DQ13" s="10" t="s">
+      <c r="DQ13" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="DR13" s="10"/>
-      <c r="DS13" s="10"/>
-      <c r="DT13" s="10" t="s">
+      <c r="DR13" s="17"/>
+      <c r="DS13" s="17"/>
+      <c r="DT13" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6118,208 +6119,208 @@
       <c r="AX14" s="13"/>
       <c r="AY14" s="11"/>
       <c r="AZ14" s="14"/>
-      <c r="BA14" s="10" t="s">
+      <c r="BA14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="BB14" s="10" t="s">
+      <c r="BB14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BC14" s="10" t="s">
+      <c r="BC14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BD14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BL14" s="10">
+      <c r="BD14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="17">
         <v>0</v>
       </c>
-      <c r="BM14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BQ14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BT14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BU14" s="10">
+      <c r="BM14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BN14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BO14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BP14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BT14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BU14" s="17">
         <v>0</v>
       </c>
-      <c r="BV14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BW14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BX14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY14" s="10">
-        <v>1</v>
-      </c>
-      <c r="BZ14" s="10">
-        <v>1</v>
-      </c>
-      <c r="CA14" s="10">
-        <v>1</v>
-      </c>
-      <c r="CB14" s="10">
-        <v>1</v>
-      </c>
-      <c r="CC14" s="10">
-        <v>1</v>
-      </c>
-      <c r="CD14" s="10">
+      <c r="BV14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BW14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BX14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY14" s="17">
+        <v>1</v>
+      </c>
+      <c r="BZ14" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA14" s="17">
+        <v>1</v>
+      </c>
+      <c r="CB14" s="17">
+        <v>1</v>
+      </c>
+      <c r="CC14" s="17">
+        <v>1</v>
+      </c>
+      <c r="CD14" s="17">
         <v>0</v>
       </c>
-      <c r="CE14" s="10">
-        <v>1</v>
-      </c>
-      <c r="CF14" s="10">
-        <v>1</v>
-      </c>
-      <c r="CG14" s="10">
-        <v>1</v>
-      </c>
-      <c r="CH14" s="10">
+      <c r="CE14" s="17">
+        <v>1</v>
+      </c>
+      <c r="CF14" s="17">
+        <v>1</v>
+      </c>
+      <c r="CG14" s="17">
+        <v>1</v>
+      </c>
+      <c r="CH14" s="17">
         <v>4.9</v>
       </c>
-      <c r="CI14" s="10">
+      <c r="CI14" s="17">
         <v>4.9</v>
       </c>
-      <c r="CJ14" s="10" t="s">
+      <c r="CJ14" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="CK14" s="10">
+      <c r="CK14" s="17">
         <v>75</v>
       </c>
-      <c r="CL14" s="10"/>
-      <c r="CM14" s="10"/>
-      <c r="CN14" s="10"/>
-      <c r="CO14" s="10">
+      <c r="CL14" s="17"/>
+      <c r="CM14" s="17"/>
+      <c r="CN14" s="17"/>
+      <c r="CO14" s="17">
         <v>8</v>
       </c>
-      <c r="CP14" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ14" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR14" s="10" t="s">
+      <c r="CP14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR14" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CS14" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT14" s="10" t="s">
+      <c r="CS14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT14" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CU14" s="10"/>
-      <c r="CV14" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW14" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX14" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY14" s="10">
+      <c r="CU14" s="17"/>
+      <c r="CV14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY14" s="17">
         <v>4.9</v>
       </c>
-      <c r="CZ14" s="10">
+      <c r="CZ14" s="17">
         <v>4.9</v>
       </c>
-      <c r="DA14" s="10">
+      <c r="DA14" s="17">
         <v>4.9</v>
       </c>
-      <c r="DB14" s="10">
+      <c r="DB14" s="17">
         <v>4.9</v>
       </c>
-      <c r="DC14" s="10">
+      <c r="DC14" s="17">
         <v>4.9</v>
       </c>
-      <c r="DD14" s="10">
+      <c r="DD14" s="17">
         <v>0</v>
       </c>
-      <c r="DE14" s="10">
+      <c r="DE14" s="17">
         <v>4.9</v>
       </c>
-      <c r="DF14" s="10">
+      <c r="DF14" s="17">
         <v>4.9</v>
       </c>
-      <c r="DG14" s="10">
+      <c r="DG14" s="17">
         <v>4.9</v>
       </c>
-      <c r="DH14" s="10">
+      <c r="DH14" s="17">
         <v>126740000</v>
       </c>
-      <c r="DI14" s="10">
+      <c r="DI14" s="17">
         <v>25348000</v>
       </c>
-      <c r="DJ14" s="10" t="s">
+      <c r="DJ14" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="DK14" s="10">
+      <c r="DK14" s="17">
         <v>7754</v>
       </c>
-      <c r="DL14" s="10" t="s">
+      <c r="DL14" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="DM14" s="10" t="s">
+      <c r="DM14" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="DN14" s="10" t="s">
+      <c r="DN14" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="DO14" s="10" t="s">
+      <c r="DO14" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="DP14" s="10" t="s">
+      <c r="DP14" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="DQ14" s="10" t="s">
+      <c r="DQ14" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="DR14" s="10"/>
-      <c r="DS14" s="10"/>
-      <c r="DT14" s="10" t="s">
+      <c r="DR14" s="17"/>
+      <c r="DS14" s="17"/>
+      <c r="DT14" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6474,214 +6475,214 @@
       <c r="AX15" s="13"/>
       <c r="AY15" s="11"/>
       <c r="AZ15" s="14"/>
-      <c r="BA15" s="10" t="s">
+      <c r="BA15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BB15" s="10" t="s">
+      <c r="BB15" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BC15" s="10" t="s">
+      <c r="BC15" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BD15" s="10">
+      <c r="BD15" s="17">
         <v>5</v>
       </c>
-      <c r="BE15" s="10">
+      <c r="BE15" s="17">
         <v>5</v>
       </c>
-      <c r="BF15" s="10">
+      <c r="BF15" s="17">
         <v>5</v>
       </c>
-      <c r="BG15" s="10">
+      <c r="BG15" s="17">
         <v>5</v>
       </c>
-      <c r="BH15" s="10">
+      <c r="BH15" s="17">
         <v>5</v>
       </c>
-      <c r="BI15" s="10">
+      <c r="BI15" s="17">
         <v>5</v>
       </c>
-      <c r="BJ15" s="10">
+      <c r="BJ15" s="17">
         <v>3</v>
       </c>
-      <c r="BK15" s="10">
+      <c r="BK15" s="17">
         <v>5</v>
       </c>
-      <c r="BL15" s="10">
+      <c r="BL15" s="17">
         <v>4</v>
       </c>
-      <c r="BM15" s="10">
+      <c r="BM15" s="17">
         <v>5</v>
       </c>
-      <c r="BN15" s="10">
+      <c r="BN15" s="17">
         <v>4</v>
       </c>
-      <c r="BO15" s="10">
+      <c r="BO15" s="17">
         <v>4</v>
       </c>
-      <c r="BP15" s="10">
+      <c r="BP15" s="17">
         <v>5</v>
       </c>
-      <c r="BQ15" s="10">
+      <c r="BQ15" s="17">
         <v>5</v>
       </c>
-      <c r="BR15" s="10">
+      <c r="BR15" s="17">
         <v>5</v>
       </c>
-      <c r="BS15" s="10">
+      <c r="BS15" s="17">
         <v>3</v>
       </c>
-      <c r="BT15" s="10">
+      <c r="BT15" s="17">
         <v>5</v>
       </c>
-      <c r="BU15" s="10">
+      <c r="BU15" s="17">
         <v>4</v>
       </c>
-      <c r="BV15" s="10">
+      <c r="BV15" s="17">
         <v>5</v>
       </c>
-      <c r="BW15" s="10">
+      <c r="BW15" s="17">
         <v>4</v>
       </c>
-      <c r="BX15" s="10">
+      <c r="BX15" s="17">
         <v>4</v>
       </c>
-      <c r="BY15" s="10">
+      <c r="BY15" s="17">
         <v>5</v>
       </c>
-      <c r="BZ15" s="10">
+      <c r="BZ15" s="17">
         <v>5</v>
       </c>
-      <c r="CA15" s="10">
+      <c r="CA15" s="17">
         <v>5</v>
       </c>
-      <c r="CB15" s="10">
+      <c r="CB15" s="17">
         <v>3</v>
       </c>
-      <c r="CC15" s="10">
+      <c r="CC15" s="17">
         <v>5</v>
       </c>
-      <c r="CD15" s="10">
+      <c r="CD15" s="17">
         <v>4</v>
       </c>
-      <c r="CE15" s="10">
+      <c r="CE15" s="17">
         <v>5</v>
       </c>
-      <c r="CF15" s="10">
+      <c r="CF15" s="17">
         <v>4</v>
       </c>
-      <c r="CG15" s="10">
+      <c r="CG15" s="17">
         <v>4</v>
       </c>
-      <c r="CH15" s="10">
+      <c r="CH15" s="17">
         <v>20.4</v>
       </c>
-      <c r="CI15" s="10">
+      <c r="CI15" s="17">
         <v>20.4</v>
       </c>
-      <c r="CJ15" s="10" t="s">
+      <c r="CJ15" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="CK15" s="10">
+      <c r="CK15" s="17">
         <v>56</v>
       </c>
-      <c r="CL15" s="10">
+      <c r="CL15" s="17">
         <v>25</v>
       </c>
-      <c r="CM15" s="10">
+      <c r="CM15" s="17">
         <v>9</v>
       </c>
-      <c r="CN15" s="10"/>
-      <c r="CO15" s="10">
+      <c r="CN15" s="17"/>
+      <c r="CO15" s="17">
         <v>15</v>
       </c>
-      <c r="CP15" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ15" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR15" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS15" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT15" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU15" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV15" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW15" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX15" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY15" s="10">
+      <c r="CP15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY15" s="17">
         <v>20.4</v>
       </c>
-      <c r="CZ15" s="10">
+      <c r="CZ15" s="17">
         <v>20.4</v>
       </c>
-      <c r="DA15" s="10">
+      <c r="DA15" s="17">
         <v>20.4</v>
       </c>
-      <c r="DB15" s="10">
+      <c r="DB15" s="17">
         <v>12.8</v>
       </c>
-      <c r="DC15" s="10">
+      <c r="DC15" s="17">
         <v>20.4</v>
       </c>
-      <c r="DD15" s="10">
+      <c r="DD15" s="17">
         <v>16.8</v>
       </c>
-      <c r="DE15" s="10">
+      <c r="DE15" s="17">
         <v>20.4</v>
       </c>
-      <c r="DF15" s="10">
+      <c r="DF15" s="17">
         <v>16.4</v>
       </c>
-      <c r="DG15" s="10">
+      <c r="DG15" s="17">
         <v>16.4</v>
       </c>
-      <c r="DH15" s="10">
+      <c r="DH15" s="17">
         <v>1225200000</v>
       </c>
-      <c r="DI15" s="10">
+      <c r="DI15" s="17">
         <v>80997000</v>
       </c>
-      <c r="DJ15" s="10" t="s">
+      <c r="DJ15" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="DK15" s="10">
+      <c r="DK15" s="17">
         <v>7755</v>
       </c>
-      <c r="DL15" s="10" t="s">
+      <c r="DL15" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="DM15" s="10" t="s">
+      <c r="DM15" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="DN15" s="10" t="s">
+      <c r="DN15" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="DO15" s="10" t="s">
+      <c r="DO15" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="DP15" s="10" t="s">
+      <c r="DP15" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="DQ15" s="10" t="s">
+      <c r="DQ15" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="DR15" s="10"/>
-      <c r="DS15" s="10"/>
-      <c r="DT15" s="10" t="s">
+      <c r="DR15" s="17"/>
+      <c r="DS15" s="17"/>
+      <c r="DT15" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6818,212 +6819,212 @@
       <c r="AX16" s="13"/>
       <c r="AY16" s="11"/>
       <c r="AZ16" s="14"/>
-      <c r="BA16" s="10" t="s">
+      <c r="BA16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="BB16" s="10" t="s">
+      <c r="BB16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="BC16" s="10" t="s">
+      <c r="BC16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="BD16" s="10">
+      <c r="BD16" s="17">
         <v>2</v>
       </c>
-      <c r="BE16" s="10">
+      <c r="BE16" s="17">
         <v>2</v>
       </c>
-      <c r="BF16" s="10">
+      <c r="BF16" s="17">
         <v>2</v>
       </c>
-      <c r="BG16" s="10">
+      <c r="BG16" s="17">
         <v>2</v>
       </c>
-      <c r="BH16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BL16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BM16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP16" s="10">
+      <c r="BH16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BK16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BN16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BO16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BP16" s="17">
         <v>2</v>
       </c>
-      <c r="BQ16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BT16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BU16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BV16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BW16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BX16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY16" s="10">
+      <c r="BQ16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BR16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BT16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BU16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BV16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BW16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BX16" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY16" s="17">
         <v>2</v>
       </c>
-      <c r="BZ16" s="10">
-        <v>1</v>
-      </c>
-      <c r="CA16" s="10">
-        <v>1</v>
-      </c>
-      <c r="CB16" s="10">
-        <v>1</v>
-      </c>
-      <c r="CC16" s="10">
-        <v>1</v>
-      </c>
-      <c r="CD16" s="10">
-        <v>1</v>
-      </c>
-      <c r="CE16" s="10">
-        <v>1</v>
-      </c>
-      <c r="CF16" s="10">
-        <v>1</v>
-      </c>
-      <c r="CG16" s="10">
-        <v>1</v>
-      </c>
-      <c r="CH16" s="10">
+      <c r="BZ16" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA16" s="17">
+        <v>1</v>
+      </c>
+      <c r="CB16" s="17">
+        <v>1</v>
+      </c>
+      <c r="CC16" s="17">
+        <v>1</v>
+      </c>
+      <c r="CD16" s="17">
+        <v>1</v>
+      </c>
+      <c r="CE16" s="17">
+        <v>1</v>
+      </c>
+      <c r="CF16" s="17">
+        <v>1</v>
+      </c>
+      <c r="CG16" s="17">
+        <v>1</v>
+      </c>
+      <c r="CH16" s="17">
         <v>6.1</v>
       </c>
-      <c r="CI16" s="10">
+      <c r="CI16" s="17">
         <v>6.1</v>
       </c>
-      <c r="CJ16" s="10" t="s">
+      <c r="CJ16" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="CK16" s="10">
+      <c r="CK16" s="17">
         <v>56.8</v>
       </c>
-      <c r="CL16" s="10"/>
-      <c r="CM16" s="10">
+      <c r="CL16" s="17"/>
+      <c r="CM16" s="17">
         <v>10</v>
       </c>
-      <c r="CN16" s="10"/>
-      <c r="CO16" s="10">
-        <v>1</v>
-      </c>
-      <c r="CP16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS16" s="10" t="s">
+      <c r="CN16" s="17"/>
+      <c r="CO16" s="17">
+        <v>1</v>
+      </c>
+      <c r="CP16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS16" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="CT16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY16" s="10">
+      <c r="CT16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY16" s="17">
         <v>6.1</v>
       </c>
-      <c r="CZ16" s="10">
+      <c r="CZ16" s="17">
         <v>3.3</v>
       </c>
-      <c r="DA16" s="10">
+      <c r="DA16" s="17">
         <v>3.3</v>
       </c>
-      <c r="DB16" s="10">
+      <c r="DB16" s="17">
         <v>3.3</v>
       </c>
-      <c r="DC16" s="10">
+      <c r="DC16" s="17">
         <v>3.3</v>
       </c>
-      <c r="DD16" s="10">
+      <c r="DD16" s="17">
         <v>3.3</v>
       </c>
-      <c r="DE16" s="10">
+      <c r="DE16" s="17">
         <v>3.3</v>
       </c>
-      <c r="DF16" s="10">
+      <c r="DF16" s="17">
         <v>3.3</v>
       </c>
-      <c r="DG16" s="10">
+      <c r="DG16" s="17">
         <v>3.3</v>
       </c>
-      <c r="DH16" s="10">
+      <c r="DH16" s="17">
         <v>302540000</v>
       </c>
-      <c r="DI16" s="10">
+      <c r="DI16" s="17">
         <v>21610000</v>
       </c>
-      <c r="DJ16" s="10" t="s">
+      <c r="DJ16" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="DK16" s="10">
+      <c r="DK16" s="17">
         <v>7756</v>
       </c>
-      <c r="DL16" s="10" t="s">
+      <c r="DL16" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="DM16" s="10" t="s">
+      <c r="DM16" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="DN16" s="10" t="s">
+      <c r="DN16" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="DO16" s="10" t="s">
+      <c r="DO16" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="DP16" s="10" t="s">
+      <c r="DP16" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="DQ16" s="10" t="s">
+      <c r="DQ16" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="DR16" s="10"/>
-      <c r="DS16" s="10"/>
-      <c r="DT16" s="10" t="s">
+      <c r="DR16" s="17"/>
+      <c r="DS16" s="17"/>
+      <c r="DT16" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7176,214 +7177,214 @@
       <c r="AX17" s="13"/>
       <c r="AY17" s="11"/>
       <c r="AZ17" s="14"/>
-      <c r="BA17" s="10" t="s">
+      <c r="BA17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="BB17" s="10" t="s">
+      <c r="BB17" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="BC17" s="10" t="s">
+      <c r="BC17" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="BD17" s="10">
+      <c r="BD17" s="17">
         <v>2</v>
       </c>
-      <c r="BE17" s="10">
+      <c r="BE17" s="17">
         <v>2</v>
       </c>
-      <c r="BF17" s="10">
+      <c r="BF17" s="17">
         <v>2</v>
       </c>
-      <c r="BG17" s="10">
+      <c r="BG17" s="17">
         <v>2</v>
       </c>
-      <c r="BH17" s="10">
+      <c r="BH17" s="17">
         <v>2</v>
       </c>
-      <c r="BI17" s="10">
+      <c r="BI17" s="17">
         <v>2</v>
       </c>
-      <c r="BJ17" s="10">
+      <c r="BJ17" s="17">
         <v>2</v>
       </c>
-      <c r="BK17" s="10">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="10">
+      <c r="BK17" s="17">
+        <v>1</v>
+      </c>
+      <c r="BL17" s="17">
         <v>2</v>
       </c>
-      <c r="BM17" s="10">
+      <c r="BM17" s="17">
         <v>2</v>
       </c>
-      <c r="BN17" s="10">
+      <c r="BN17" s="17">
         <v>2</v>
       </c>
-      <c r="BO17" s="10">
+      <c r="BO17" s="17">
         <v>2</v>
       </c>
-      <c r="BP17" s="10">
+      <c r="BP17" s="17">
         <v>2</v>
       </c>
-      <c r="BQ17" s="10">
+      <c r="BQ17" s="17">
         <v>2</v>
       </c>
-      <c r="BR17" s="10">
+      <c r="BR17" s="17">
         <v>2</v>
       </c>
-      <c r="BS17" s="10">
+      <c r="BS17" s="17">
         <v>2</v>
       </c>
-      <c r="BT17" s="10">
-        <v>1</v>
-      </c>
-      <c r="BU17" s="10">
+      <c r="BT17" s="17">
+        <v>1</v>
+      </c>
+      <c r="BU17" s="17">
         <v>2</v>
       </c>
-      <c r="BV17" s="10">
+      <c r="BV17" s="17">
         <v>2</v>
       </c>
-      <c r="BW17" s="10">
+      <c r="BW17" s="17">
         <v>2</v>
       </c>
-      <c r="BX17" s="10">
+      <c r="BX17" s="17">
         <v>2</v>
       </c>
-      <c r="BY17" s="10">
+      <c r="BY17" s="17">
         <v>2</v>
       </c>
-      <c r="BZ17" s="10">
+      <c r="BZ17" s="17">
         <v>2</v>
       </c>
-      <c r="CA17" s="10">
+      <c r="CA17" s="17">
         <v>2</v>
       </c>
-      <c r="CB17" s="10">
+      <c r="CB17" s="17">
         <v>2</v>
       </c>
-      <c r="CC17" s="10">
-        <v>1</v>
-      </c>
-      <c r="CD17" s="10">
+      <c r="CC17" s="17">
+        <v>1</v>
+      </c>
+      <c r="CD17" s="17">
         <v>2</v>
       </c>
-      <c r="CE17" s="10">
+      <c r="CE17" s="17">
         <v>2</v>
       </c>
-      <c r="CF17" s="10">
+      <c r="CF17" s="17">
         <v>2</v>
       </c>
-      <c r="CG17" s="10">
+      <c r="CG17" s="17">
         <v>2</v>
       </c>
-      <c r="CH17" s="10">
+      <c r="CH17" s="17">
         <v>14.3</v>
       </c>
-      <c r="CI17" s="10">
+      <c r="CI17" s="17">
         <v>14.3</v>
       </c>
-      <c r="CJ17" s="10" t="s">
+      <c r="CJ17" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="CK17" s="10">
+      <c r="CK17" s="17">
         <v>65</v>
       </c>
-      <c r="CL17" s="10"/>
-      <c r="CM17" s="10">
+      <c r="CL17" s="17"/>
+      <c r="CM17" s="17">
         <v>8</v>
       </c>
-      <c r="CN17" s="10">
+      <c r="CN17" s="17">
         <v>7</v>
       </c>
-      <c r="CO17" s="10">
+      <c r="CO17" s="17">
         <v>8</v>
       </c>
-      <c r="CP17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY17" s="10">
+      <c r="CP17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY17" s="17">
         <v>14.3</v>
       </c>
-      <c r="CZ17" s="10">
+      <c r="CZ17" s="17">
         <v>14.3</v>
       </c>
-      <c r="DA17" s="10">
+      <c r="DA17" s="17">
         <v>14.3</v>
       </c>
-      <c r="DB17" s="10">
+      <c r="DB17" s="17">
         <v>14.3</v>
       </c>
-      <c r="DC17" s="10">
+      <c r="DC17" s="17">
         <v>8.300000000000001</v>
       </c>
-      <c r="DD17" s="10">
+      <c r="DD17" s="17">
         <v>14.3</v>
       </c>
-      <c r="DE17" s="10">
+      <c r="DE17" s="17">
         <v>14.3</v>
       </c>
-      <c r="DF17" s="10">
+      <c r="DF17" s="17">
         <v>14.3</v>
       </c>
-      <c r="DG17" s="10">
+      <c r="DG17" s="17">
         <v>14.3</v>
       </c>
-      <c r="DH17" s="10">
+      <c r="DH17" s="17">
         <v>392710000</v>
       </c>
-      <c r="DI17" s="10">
+      <c r="DI17" s="17">
         <v>43634000</v>
       </c>
-      <c r="DJ17" s="10" t="s">
+      <c r="DJ17" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="DK17" s="10">
+      <c r="DK17" s="17">
         <v>7757</v>
       </c>
-      <c r="DL17" s="10" t="s">
+      <c r="DL17" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="DM17" s="10" t="s">
+      <c r="DM17" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="DN17" s="10" t="s">
+      <c r="DN17" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="DO17" s="10" t="s">
+      <c r="DO17" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="DP17" s="10" t="s">
+      <c r="DP17" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="DQ17" s="10" t="s">
+      <c r="DQ17" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="DR17" s="10"/>
-      <c r="DS17" s="10"/>
-      <c r="DT17" s="10" t="s">
+      <c r="DR17" s="17"/>
+      <c r="DS17" s="17"/>
+      <c r="DT17" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7538,216 +7539,216 @@
       <c r="AX18" s="13"/>
       <c r="AY18" s="11"/>
       <c r="AZ18" s="14"/>
-      <c r="BA18" s="10" t="s">
+      <c r="BA18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="BB18" s="10" t="s">
+      <c r="BB18" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="BC18" s="10" t="s">
+      <c r="BC18" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="BD18" s="10">
+      <c r="BD18" s="17">
         <v>7</v>
       </c>
-      <c r="BE18" s="10">
+      <c r="BE18" s="17">
         <v>7</v>
       </c>
-      <c r="BF18" s="10">
+      <c r="BF18" s="17">
         <v>7</v>
       </c>
-      <c r="BG18" s="10">
+      <c r="BG18" s="17">
         <v>5</v>
       </c>
-      <c r="BH18" s="10">
+      <c r="BH18" s="17">
         <v>5</v>
       </c>
-      <c r="BI18" s="10">
+      <c r="BI18" s="17">
         <v>6</v>
       </c>
-      <c r="BJ18" s="10">
+      <c r="BJ18" s="17">
         <v>5</v>
       </c>
-      <c r="BK18" s="10">
+      <c r="BK18" s="17">
         <v>5</v>
       </c>
-      <c r="BL18" s="10">
+      <c r="BL18" s="17">
         <v>5</v>
       </c>
-      <c r="BM18" s="10">
+      <c r="BM18" s="17">
         <v>5</v>
       </c>
-      <c r="BN18" s="10">
+      <c r="BN18" s="17">
         <v>5</v>
       </c>
-      <c r="BO18" s="10">
+      <c r="BO18" s="17">
         <v>4</v>
       </c>
-      <c r="BP18" s="10">
+      <c r="BP18" s="17">
         <v>5</v>
       </c>
-      <c r="BQ18" s="10">
+      <c r="BQ18" s="17">
         <v>5</v>
       </c>
-      <c r="BR18" s="10">
+      <c r="BR18" s="17">
         <v>6</v>
       </c>
-      <c r="BS18" s="10">
+      <c r="BS18" s="17">
         <v>5</v>
       </c>
-      <c r="BT18" s="10">
+      <c r="BT18" s="17">
         <v>5</v>
       </c>
-      <c r="BU18" s="10">
+      <c r="BU18" s="17">
         <v>5</v>
       </c>
-      <c r="BV18" s="10">
+      <c r="BV18" s="17">
         <v>5</v>
       </c>
-      <c r="BW18" s="10">
+      <c r="BW18" s="17">
         <v>5</v>
       </c>
-      <c r="BX18" s="10">
+      <c r="BX18" s="17">
         <v>4</v>
       </c>
-      <c r="BY18" s="10">
+      <c r="BY18" s="17">
         <v>5</v>
       </c>
-      <c r="BZ18" s="10">
+      <c r="BZ18" s="17">
         <v>5</v>
       </c>
-      <c r="CA18" s="10">
+      <c r="CA18" s="17">
         <v>6</v>
       </c>
-      <c r="CB18" s="10">
+      <c r="CB18" s="17">
         <v>5</v>
       </c>
-      <c r="CC18" s="10">
+      <c r="CC18" s="17">
         <v>5</v>
       </c>
-      <c r="CD18" s="10">
+      <c r="CD18" s="17">
         <v>5</v>
       </c>
-      <c r="CE18" s="10">
+      <c r="CE18" s="17">
         <v>5</v>
       </c>
-      <c r="CF18" s="10">
+      <c r="CF18" s="17">
         <v>5</v>
       </c>
-      <c r="CG18" s="10">
+      <c r="CG18" s="17">
         <v>4</v>
       </c>
-      <c r="CH18" s="10">
+      <c r="CH18" s="17">
         <v>19.1</v>
       </c>
-      <c r="CI18" s="10">
+      <c r="CI18" s="17">
         <v>19.1</v>
       </c>
-      <c r="CJ18" s="10" t="s">
+      <c r="CJ18" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="CK18" s="10">
+      <c r="CK18" s="17">
         <v>62.4</v>
       </c>
-      <c r="CL18" s="10">
+      <c r="CL18" s="17">
         <v>7</v>
       </c>
-      <c r="CM18" s="10">
+      <c r="CM18" s="17">
         <v>22</v>
       </c>
-      <c r="CN18" s="10">
+      <c r="CN18" s="17">
         <v>17</v>
       </c>
-      <c r="CO18" s="10">
+      <c r="CO18" s="17">
         <v>19</v>
       </c>
-      <c r="CP18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY18" s="10">
+      <c r="CP18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY18" s="17">
         <v>15.2</v>
       </c>
-      <c r="CZ18" s="10">
+      <c r="CZ18" s="17">
         <v>15.2</v>
       </c>
-      <c r="DA18" s="10">
+      <c r="DA18" s="17">
         <v>16.8</v>
       </c>
-      <c r="DB18" s="10">
+      <c r="DB18" s="17">
         <v>15.2</v>
       </c>
-      <c r="DC18" s="10">
+      <c r="DC18" s="17">
         <v>15.2</v>
       </c>
-      <c r="DD18" s="10">
+      <c r="DD18" s="17">
         <v>15.2</v>
       </c>
-      <c r="DE18" s="10">
+      <c r="DE18" s="17">
         <v>15.2</v>
       </c>
-      <c r="DF18" s="10">
+      <c r="DF18" s="17">
         <v>15.2</v>
       </c>
-      <c r="DG18" s="10">
+      <c r="DG18" s="17">
         <v>12.9</v>
       </c>
-      <c r="DH18" s="10">
+      <c r="DH18" s="17">
         <v>383750000</v>
       </c>
-      <c r="DI18" s="10">
+      <c r="DI18" s="17">
         <v>2046500</v>
       </c>
-      <c r="DJ18" s="10" t="s">
+      <c r="DJ18" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="DK18" s="10">
+      <c r="DK18" s="17">
         <v>7758</v>
       </c>
-      <c r="DL18" s="10" t="s">
+      <c r="DL18" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="DM18" s="10" t="s">
+      <c r="DM18" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="DN18" s="10" t="s">
+      <c r="DN18" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="DO18" s="10" t="s">
+      <c r="DO18" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="DP18" s="10" t="s">
+      <c r="DP18" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="DQ18" s="10" t="s">
+      <c r="DQ18" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="DR18" s="10"/>
-      <c r="DS18" s="10"/>
-      <c r="DT18" s="10" t="s">
+      <c r="DR18" s="17"/>
+      <c r="DS18" s="17"/>
+      <c r="DT18" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7902,216 +7903,216 @@
       <c r="AX19" s="13"/>
       <c r="AY19" s="11"/>
       <c r="AZ19" s="14"/>
-      <c r="BA19" s="10" t="s">
+      <c r="BA19" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="BB19" s="10" t="s">
+      <c r="BB19" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="BC19" s="10" t="s">
+      <c r="BC19" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="BD19" s="10">
+      <c r="BD19" s="17">
         <v>7</v>
       </c>
-      <c r="BE19" s="10">
+      <c r="BE19" s="17">
         <v>7</v>
       </c>
-      <c r="BF19" s="10">
+      <c r="BF19" s="17">
         <v>7</v>
       </c>
-      <c r="BG19" s="10">
+      <c r="BG19" s="17">
         <v>7</v>
       </c>
-      <c r="BH19" s="10">
+      <c r="BH19" s="17">
         <v>6</v>
       </c>
-      <c r="BI19" s="10">
+      <c r="BI19" s="17">
         <v>7</v>
       </c>
-      <c r="BJ19" s="10">
+      <c r="BJ19" s="17">
         <v>6</v>
       </c>
-      <c r="BK19" s="10">
+      <c r="BK19" s="17">
         <v>7</v>
       </c>
-      <c r="BL19" s="10">
+      <c r="BL19" s="17">
         <v>7</v>
       </c>
-      <c r="BM19" s="10">
+      <c r="BM19" s="17">
         <v>7</v>
       </c>
-      <c r="BN19" s="10">
+      <c r="BN19" s="17">
         <v>7</v>
       </c>
-      <c r="BO19" s="10">
+      <c r="BO19" s="17">
         <v>7</v>
       </c>
-      <c r="BP19" s="10">
+      <c r="BP19" s="17">
         <v>7</v>
       </c>
-      <c r="BQ19" s="10">
+      <c r="BQ19" s="17">
         <v>6</v>
       </c>
-      <c r="BR19" s="10">
+      <c r="BR19" s="17">
         <v>7</v>
       </c>
-      <c r="BS19" s="10">
+      <c r="BS19" s="17">
         <v>6</v>
       </c>
-      <c r="BT19" s="10">
+      <c r="BT19" s="17">
         <v>7</v>
       </c>
-      <c r="BU19" s="10">
+      <c r="BU19" s="17">
         <v>7</v>
       </c>
-      <c r="BV19" s="10">
+      <c r="BV19" s="17">
         <v>7</v>
       </c>
-      <c r="BW19" s="10">
+      <c r="BW19" s="17">
         <v>7</v>
       </c>
-      <c r="BX19" s="10">
+      <c r="BX19" s="17">
         <v>7</v>
       </c>
-      <c r="BY19" s="10">
+      <c r="BY19" s="17">
         <v>7</v>
       </c>
-      <c r="BZ19" s="10">
+      <c r="BZ19" s="17">
         <v>6</v>
       </c>
-      <c r="CA19" s="10">
+      <c r="CA19" s="17">
         <v>7</v>
       </c>
-      <c r="CB19" s="10">
+      <c r="CB19" s="17">
         <v>6</v>
       </c>
-      <c r="CC19" s="10">
+      <c r="CC19" s="17">
         <v>7</v>
       </c>
-      <c r="CD19" s="10">
+      <c r="CD19" s="17">
         <v>7</v>
       </c>
-      <c r="CE19" s="10">
+      <c r="CE19" s="17">
         <v>7</v>
       </c>
-      <c r="CF19" s="10">
+      <c r="CF19" s="17">
         <v>7</v>
       </c>
-      <c r="CG19" s="10">
+      <c r="CG19" s="17">
         <v>7</v>
       </c>
-      <c r="CH19" s="10">
+      <c r="CH19" s="17">
         <v>43.7</v>
       </c>
-      <c r="CI19" s="10">
+      <c r="CI19" s="17">
         <v>43.7</v>
       </c>
-      <c r="CJ19" s="10" t="s">
+      <c r="CJ19" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="CK19" s="10">
+      <c r="CK19" s="17">
         <v>52.8</v>
       </c>
-      <c r="CL19" s="10">
+      <c r="CL19" s="17">
         <v>43</v>
       </c>
-      <c r="CM19" s="10">
+      <c r="CM19" s="17">
         <v>17</v>
       </c>
-      <c r="CN19" s="10">
+      <c r="CN19" s="17">
         <v>8</v>
       </c>
-      <c r="CO19" s="10">
+      <c r="CO19" s="17">
         <v>9</v>
       </c>
-      <c r="CP19" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ19" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR19" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS19" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT19" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU19" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV19" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW19" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX19" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY19" s="10">
+      <c r="CP19" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ19" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR19" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS19" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT19" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU19" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV19" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW19" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX19" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY19" s="17">
         <v>43.7</v>
       </c>
-      <c r="CZ19" s="10">
+      <c r="CZ19" s="17">
         <v>39.1</v>
       </c>
-      <c r="DA19" s="10">
+      <c r="DA19" s="17">
         <v>43.7</v>
       </c>
-      <c r="DB19" s="10">
+      <c r="DB19" s="17">
         <v>34</v>
       </c>
-      <c r="DC19" s="10">
+      <c r="DC19" s="17">
         <v>43.7</v>
       </c>
-      <c r="DD19" s="10">
+      <c r="DD19" s="17">
         <v>43.7</v>
       </c>
-      <c r="DE19" s="10">
+      <c r="DE19" s="17">
         <v>43.7</v>
       </c>
-      <c r="DF19" s="10">
+      <c r="DF19" s="17">
         <v>43.7</v>
       </c>
-      <c r="DG19" s="10">
+      <c r="DG19" s="17">
         <v>43.7</v>
       </c>
-      <c r="DH19" s="10">
+      <c r="DH19" s="17">
         <v>3096400000</v>
       </c>
-      <c r="DI19" s="10">
+      <c r="DI19" s="17">
         <v>260060000</v>
       </c>
-      <c r="DJ19" s="10" t="s">
+      <c r="DJ19" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="DK19" s="10">
+      <c r="DK19" s="17">
         <v>7759</v>
       </c>
-      <c r="DL19" s="10" t="s">
+      <c r="DL19" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="DM19" s="10" t="s">
+      <c r="DM19" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="DN19" s="10" t="s">
+      <c r="DN19" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="DO19" s="10" t="s">
+      <c r="DO19" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="DP19" s="10" t="s">
+      <c r="DP19" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="DQ19" s="10" t="s">
+      <c r="DQ19" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="DR19" s="10"/>
-      <c r="DS19" s="10"/>
-      <c r="DT19" s="10" t="s">
+      <c r="DR19" s="17"/>
+      <c r="DS19" s="17"/>
+      <c r="DT19" s="17" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8266,214 +8267,214 @@
       <c r="AX20" s="13"/>
       <c r="AY20" s="11"/>
       <c r="AZ20" s="14"/>
-      <c r="BA20" s="10" t="s">
+      <c r="BA20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="BB20" s="10" t="s">
+      <c r="BB20" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="BC20" s="10" t="s">
+      <c r="BC20" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="BD20" s="10">
+      <c r="BD20" s="17">
         <v>6</v>
       </c>
-      <c r="BE20" s="10">
+      <c r="BE20" s="17">
         <v>6</v>
       </c>
-      <c r="BF20" s="10">
+      <c r="BF20" s="17">
         <v>6</v>
       </c>
-      <c r="BG20" s="10">
+      <c r="BG20" s="17">
         <v>6</v>
       </c>
-      <c r="BH20" s="10">
+      <c r="BH20" s="17">
         <v>6</v>
       </c>
-      <c r="BI20" s="10">
+      <c r="BI20" s="17">
         <v>6</v>
       </c>
-      <c r="BJ20" s="10">
+      <c r="BJ20" s="17">
         <v>6</v>
       </c>
-      <c r="BK20" s="10">
+      <c r="BK20" s="17">
         <v>6</v>
       </c>
-      <c r="BL20" s="10">
+      <c r="BL20" s="17">
         <v>6</v>
       </c>
-      <c r="BM20" s="10">
+      <c r="BM20" s="17">
         <v>6</v>
       </c>
-      <c r="BN20" s="10">
+      <c r="BN20" s="17">
         <v>6</v>
       </c>
-      <c r="BO20" s="10">
+      <c r="BO20" s="17">
         <v>6</v>
       </c>
-      <c r="BP20" s="10">
+      <c r="BP20" s="17">
         <v>6</v>
       </c>
-      <c r="BQ20" s="10">
+      <c r="BQ20" s="17">
         <v>6</v>
       </c>
-      <c r="BR20" s="10">
+      <c r="BR20" s="17">
         <v>6</v>
       </c>
-      <c r="BS20" s="10">
+      <c r="BS20" s="17">
         <v>6</v>
       </c>
-      <c r="BT20" s="10">
+      <c r="BT20" s="17">
         <v>6</v>
       </c>
-      <c r="BU20" s="10">
+      <c r="BU20" s="17">
         <v>6</v>
       </c>
-      <c r="BV20" s="10">
+      <c r="BV20" s="17">
         <v>6</v>
       </c>
-      <c r="BW20" s="10">
+      <c r="BW20" s="17">
         <v>6</v>
       </c>
-      <c r="BX20" s="10">
+      <c r="BX20" s="17">
         <v>6</v>
       </c>
-      <c r="BY20" s="10">
+      <c r="BY20" s="17">
         <v>6</v>
       </c>
-      <c r="BZ20" s="10">
+      <c r="BZ20" s="17">
         <v>6</v>
       </c>
-      <c r="CA20" s="10">
+      <c r="CA20" s="17">
         <v>6</v>
       </c>
-      <c r="CB20" s="10">
+      <c r="CB20" s="17">
         <v>6</v>
       </c>
-      <c r="CC20" s="10">
+      <c r="CC20" s="17">
         <v>6</v>
       </c>
-      <c r="CD20" s="10">
+      <c r="CD20" s="17">
         <v>6</v>
       </c>
-      <c r="CE20" s="10">
+      <c r="CE20" s="17">
         <v>6</v>
       </c>
-      <c r="CF20" s="10">
+      <c r="CF20" s="17">
         <v>6</v>
       </c>
-      <c r="CG20" s="10">
+      <c r="CG20" s="17">
         <v>6</v>
       </c>
-      <c r="CH20" s="10">
+      <c r="CH20" s="17">
         <v>20.1</v>
       </c>
-      <c r="CI20" s="10">
+      <c r="CI20" s="17">
         <v>20.1</v>
       </c>
-      <c r="CJ20" s="10" t="s">
+      <c r="CJ20" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="CK20" s="10">
+      <c r="CK20" s="17">
         <v>53.9</v>
       </c>
-      <c r="CL20" s="10">
+      <c r="CL20" s="17">
         <v>25</v>
       </c>
-      <c r="CM20" s="10">
+      <c r="CM20" s="17">
         <v>18</v>
       </c>
-      <c r="CN20" s="10">
+      <c r="CN20" s="17">
         <v>18</v>
       </c>
-      <c r="CO20" s="10"/>
-      <c r="CP20" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ20" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR20" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS20" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT20" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU20" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV20" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW20" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX20" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY20" s="10">
+      <c r="CO20" s="17"/>
+      <c r="CP20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY20" s="17">
         <v>20.1</v>
       </c>
-      <c r="CZ20" s="10">
+      <c r="CZ20" s="17">
         <v>20.1</v>
       </c>
-      <c r="DA20" s="10">
+      <c r="DA20" s="17">
         <v>20.1</v>
       </c>
-      <c r="DB20" s="10">
+      <c r="DB20" s="17">
         <v>20.1</v>
       </c>
-      <c r="DC20" s="10">
+      <c r="DC20" s="17">
         <v>20.1</v>
       </c>
-      <c r="DD20" s="10">
+      <c r="DD20" s="17">
         <v>20.1</v>
       </c>
-      <c r="DE20" s="10">
+      <c r="DE20" s="17">
         <v>20.1</v>
       </c>
-      <c r="DF20" s="10">
+      <c r="DF20" s="17">
         <v>20.1</v>
       </c>
-      <c r="DG20" s="10">
+      <c r="DG20" s="17">
         <v>20.1</v>
       </c>
-      <c r="DH20" s="10">
+      <c r="DH20" s="17">
         <v>868450000</v>
       </c>
-      <c r="DI20" s="10">
+      <c r="DI20" s="17">
         <v>24333000</v>
       </c>
-      <c r="DJ20" s="10" t="s">
+      <c r="DJ20" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="DK20" s="10">
+      <c r="DK20" s="17">
         <v>7760</v>
       </c>
-      <c r="DL20" s="10" t="s">
+      <c r="DL20" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="DM20" s="10" t="s">
+      <c r="DM20" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="DN20" s="10" t="s">
+      <c r="DN20" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="DO20" s="10" t="s">
+      <c r="DO20" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="DP20" s="10" t="s">
+      <c r="DP20" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="DQ20" s="10" t="s">
+      <c r="DQ20" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="DR20" s="10"/>
-      <c r="DS20" s="10"/>
-      <c r="DT20" s="10" t="s">
+      <c r="DR20" s="17"/>
+      <c r="DS20" s="17"/>
+      <c r="DT20" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8628,214 +8629,214 @@
       <c r="AX21" s="13"/>
       <c r="AY21" s="11"/>
       <c r="AZ21" s="14"/>
-      <c r="BA21" s="10" t="s">
+      <c r="BA21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="BB21" s="10" t="s">
+      <c r="BB21" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="BC21" s="10" t="s">
+      <c r="BC21" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="BD21" s="10">
+      <c r="BD21" s="17">
         <v>10</v>
       </c>
-      <c r="BE21" s="10">
+      <c r="BE21" s="17">
         <v>10</v>
       </c>
-      <c r="BF21" s="10">
+      <c r="BF21" s="17">
         <v>10</v>
       </c>
-      <c r="BG21" s="10">
+      <c r="BG21" s="17">
         <v>7</v>
       </c>
-      <c r="BH21" s="10">
+      <c r="BH21" s="17">
         <v>8</v>
       </c>
-      <c r="BI21" s="10">
+      <c r="BI21" s="17">
         <v>7</v>
       </c>
-      <c r="BJ21" s="10">
+      <c r="BJ21" s="17">
         <v>6</v>
       </c>
-      <c r="BK21" s="10">
+      <c r="BK21" s="17">
         <v>8</v>
       </c>
-      <c r="BL21" s="10">
+      <c r="BL21" s="17">
         <v>8</v>
       </c>
-      <c r="BM21" s="10">
+      <c r="BM21" s="17">
         <v>8</v>
       </c>
-      <c r="BN21" s="10">
+      <c r="BN21" s="17">
         <v>10</v>
       </c>
-      <c r="BO21" s="10">
+      <c r="BO21" s="17">
         <v>8</v>
       </c>
-      <c r="BP21" s="10">
+      <c r="BP21" s="17">
         <v>7</v>
       </c>
-      <c r="BQ21" s="10">
+      <c r="BQ21" s="17">
         <v>8</v>
       </c>
-      <c r="BR21" s="10">
+      <c r="BR21" s="17">
         <v>7</v>
       </c>
-      <c r="BS21" s="10">
+      <c r="BS21" s="17">
         <v>6</v>
       </c>
-      <c r="BT21" s="10">
+      <c r="BT21" s="17">
         <v>8</v>
       </c>
-      <c r="BU21" s="10">
+      <c r="BU21" s="17">
         <v>8</v>
       </c>
-      <c r="BV21" s="10">
+      <c r="BV21" s="17">
         <v>8</v>
       </c>
-      <c r="BW21" s="10">
+      <c r="BW21" s="17">
         <v>10</v>
       </c>
-      <c r="BX21" s="10">
+      <c r="BX21" s="17">
         <v>8</v>
       </c>
-      <c r="BY21" s="10">
+      <c r="BY21" s="17">
         <v>7</v>
       </c>
-      <c r="BZ21" s="10">
+      <c r="BZ21" s="17">
         <v>8</v>
       </c>
-      <c r="CA21" s="10">
+      <c r="CA21" s="17">
         <v>7</v>
       </c>
-      <c r="CB21" s="10">
+      <c r="CB21" s="17">
         <v>6</v>
       </c>
-      <c r="CC21" s="10">
+      <c r="CC21" s="17">
         <v>8</v>
       </c>
-      <c r="CD21" s="10">
+      <c r="CD21" s="17">
         <v>8</v>
       </c>
-      <c r="CE21" s="10">
+      <c r="CE21" s="17">
         <v>8</v>
       </c>
-      <c r="CF21" s="10">
+      <c r="CF21" s="17">
         <v>10</v>
       </c>
-      <c r="CG21" s="10">
+      <c r="CG21" s="17">
         <v>8</v>
       </c>
-      <c r="CH21" s="10">
+      <c r="CH21" s="17">
         <v>23.9</v>
       </c>
-      <c r="CI21" s="10">
+      <c r="CI21" s="17">
         <v>23.9</v>
       </c>
-      <c r="CJ21" s="10" t="s">
+      <c r="CJ21" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="CK21" s="10">
+      <c r="CK21" s="17">
         <v>51.7</v>
       </c>
-      <c r="CL21" s="10">
+      <c r="CL21" s="17">
         <v>52</v>
       </c>
-      <c r="CM21" s="10">
+      <c r="CM21" s="17">
         <v>24</v>
       </c>
-      <c r="CN21" s="10">
+      <c r="CN21" s="17">
         <v>20</v>
       </c>
-      <c r="CO21" s="10"/>
-      <c r="CP21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY21" s="10">
+      <c r="CO21" s="17"/>
+      <c r="CP21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY21" s="17">
         <v>15.7</v>
       </c>
-      <c r="CZ21" s="10">
+      <c r="CZ21" s="17">
         <v>20.6</v>
       </c>
-      <c r="DA21" s="10">
+      <c r="DA21" s="17">
         <v>15.7</v>
       </c>
-      <c r="DB21" s="10">
+      <c r="DB21" s="17">
         <v>15.7</v>
       </c>
-      <c r="DC21" s="10">
+      <c r="DC21" s="17">
         <v>17.4</v>
       </c>
-      <c r="DD21" s="10">
+      <c r="DD21" s="17">
         <v>20.5</v>
       </c>
-      <c r="DE21" s="10">
+      <c r="DE21" s="17">
         <v>20.6</v>
       </c>
-      <c r="DF21" s="10">
+      <c r="DF21" s="17">
         <v>23.9</v>
       </c>
-      <c r="DG21" s="10">
+      <c r="DG21" s="17">
         <v>17.4</v>
       </c>
-      <c r="DH21" s="10">
+      <c r="DH21" s="17">
         <v>7794800000</v>
       </c>
-      <c r="DI21" s="10">
+      <c r="DI21" s="17">
         <v>255860000</v>
       </c>
-      <c r="DJ21" s="10" t="s">
+      <c r="DJ21" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="DK21" s="10">
+      <c r="DK21" s="17">
         <v>7761</v>
       </c>
-      <c r="DL21" s="10" t="s">
+      <c r="DL21" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="DM21" s="10" t="s">
+      <c r="DM21" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="DN21" s="10" t="s">
+      <c r="DN21" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="DO21" s="10" t="s">
+      <c r="DO21" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="DP21" s="10" t="s">
+      <c r="DP21" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="DQ21" s="10" t="s">
+      <c r="DQ21" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="DR21" s="10"/>
-      <c r="DS21" s="10"/>
-      <c r="DT21" s="10" t="s">
+      <c r="DR21" s="17"/>
+      <c r="DS21" s="17"/>
+      <c r="DT21" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8990,214 +8991,214 @@
       <c r="AX22" s="13"/>
       <c r="AY22" s="11"/>
       <c r="AZ22" s="14"/>
-      <c r="BA22" s="10" t="s">
+      <c r="BA22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="BB22" s="10" t="s">
+      <c r="BB22" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="BC22" s="10" t="s">
+      <c r="BC22" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="BD22" s="10">
+      <c r="BD22" s="17">
         <v>8</v>
       </c>
-      <c r="BE22" s="10">
+      <c r="BE22" s="17">
         <v>8</v>
       </c>
-      <c r="BF22" s="10">
+      <c r="BF22" s="17">
         <v>8</v>
       </c>
-      <c r="BG22" s="10">
+      <c r="BG22" s="17">
         <v>8</v>
       </c>
-      <c r="BH22" s="10">
+      <c r="BH22" s="17">
         <v>8</v>
       </c>
-      <c r="BI22" s="10">
+      <c r="BI22" s="17">
         <v>8</v>
       </c>
-      <c r="BJ22" s="10">
+      <c r="BJ22" s="17">
         <v>8</v>
       </c>
-      <c r="BK22" s="10">
+      <c r="BK22" s="17">
         <v>8</v>
       </c>
-      <c r="BL22" s="10">
+      <c r="BL22" s="17">
         <v>8</v>
       </c>
-      <c r="BM22" s="10">
+      <c r="BM22" s="17">
         <v>8</v>
       </c>
-      <c r="BN22" s="10">
+      <c r="BN22" s="17">
         <v>7</v>
       </c>
-      <c r="BO22" s="10">
+      <c r="BO22" s="17">
         <v>7</v>
       </c>
-      <c r="BP22" s="10">
+      <c r="BP22" s="17">
         <v>8</v>
       </c>
-      <c r="BQ22" s="10">
+      <c r="BQ22" s="17">
         <v>8</v>
       </c>
-      <c r="BR22" s="10">
+      <c r="BR22" s="17">
         <v>8</v>
       </c>
-      <c r="BS22" s="10">
+      <c r="BS22" s="17">
         <v>8</v>
       </c>
-      <c r="BT22" s="10">
+      <c r="BT22" s="17">
         <v>8</v>
       </c>
-      <c r="BU22" s="10">
+      <c r="BU22" s="17">
         <v>8</v>
       </c>
-      <c r="BV22" s="10">
+      <c r="BV22" s="17">
         <v>8</v>
       </c>
-      <c r="BW22" s="10">
+      <c r="BW22" s="17">
         <v>7</v>
       </c>
-      <c r="BX22" s="10">
+      <c r="BX22" s="17">
         <v>7</v>
       </c>
-      <c r="BY22" s="10">
+      <c r="BY22" s="17">
         <v>8</v>
       </c>
-      <c r="BZ22" s="10">
+      <c r="BZ22" s="17">
         <v>8</v>
       </c>
-      <c r="CA22" s="10">
+      <c r="CA22" s="17">
         <v>8</v>
       </c>
-      <c r="CB22" s="10">
+      <c r="CB22" s="17">
         <v>8</v>
       </c>
-      <c r="CC22" s="10">
+      <c r="CC22" s="17">
         <v>8</v>
       </c>
-      <c r="CD22" s="10">
+      <c r="CD22" s="17">
         <v>8</v>
       </c>
-      <c r="CE22" s="10">
+      <c r="CE22" s="17">
         <v>8</v>
       </c>
-      <c r="CF22" s="10">
+      <c r="CF22" s="17">
         <v>7</v>
       </c>
-      <c r="CG22" s="10">
+      <c r="CG22" s="17">
         <v>7</v>
       </c>
-      <c r="CH22" s="10">
+      <c r="CH22" s="17">
         <v>22.6</v>
       </c>
-      <c r="CI22" s="10">
+      <c r="CI22" s="17">
         <v>22.6</v>
       </c>
-      <c r="CJ22" s="10" t="s">
+      <c r="CJ22" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="CK22" s="10">
+      <c r="CK22" s="17">
         <v>64</v>
       </c>
-      <c r="CL22" s="10"/>
-      <c r="CM22" s="10">
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17">
         <v>27</v>
       </c>
-      <c r="CN22" s="10">
+      <c r="CN22" s="17">
         <v>43</v>
       </c>
-      <c r="CO22" s="10">
+      <c r="CO22" s="17">
         <v>18</v>
       </c>
-      <c r="CP22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY22" s="10">
+      <c r="CP22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY22" s="17">
         <v>22.6</v>
       </c>
-      <c r="CZ22" s="10">
+      <c r="CZ22" s="17">
         <v>22.6</v>
       </c>
-      <c r="DA22" s="10">
+      <c r="DA22" s="17">
         <v>22.6</v>
       </c>
-      <c r="DB22" s="10">
+      <c r="DB22" s="17">
         <v>22.6</v>
       </c>
-      <c r="DC22" s="10">
+      <c r="DC22" s="17">
         <v>22.6</v>
       </c>
-      <c r="DD22" s="10">
+      <c r="DD22" s="17">
         <v>22.6</v>
       </c>
-      <c r="DE22" s="10">
+      <c r="DE22" s="17">
         <v>22.6</v>
       </c>
-      <c r="DF22" s="10">
+      <c r="DF22" s="17">
         <v>20.7</v>
       </c>
-      <c r="DG22" s="10">
+      <c r="DG22" s="17">
         <v>19.2</v>
       </c>
-      <c r="DH22" s="10">
+      <c r="DH22" s="17">
         <v>1287200000</v>
       </c>
-      <c r="DI22" s="10">
+      <c r="DI22" s="17">
         <v>15329000</v>
       </c>
-      <c r="DJ22" s="10" t="s">
+      <c r="DJ22" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="DK22" s="10">
+      <c r="DK22" s="17">
         <v>7762</v>
       </c>
-      <c r="DL22" s="10" t="s">
+      <c r="DL22" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="DM22" s="10" t="s">
+      <c r="DM22" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="DN22" s="10" t="s">
+      <c r="DN22" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="DO22" s="10" t="s">
+      <c r="DO22" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="DP22" s="10" t="s">
+      <c r="DP22" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="DQ22" s="10" t="s">
+      <c r="DQ22" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="DR22" s="10"/>
-      <c r="DS22" s="10"/>
-      <c r="DT22" s="10" t="s">
+      <c r="DR22" s="17"/>
+      <c r="DS22" s="17"/>
+      <c r="DT22" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9352,216 +9353,216 @@
       <c r="AX23" s="13"/>
       <c r="AY23" s="11"/>
       <c r="AZ23" s="14"/>
-      <c r="BA23" s="10" t="s">
+      <c r="BA23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="BB23" s="10" t="s">
+      <c r="BB23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="BC23" s="10" t="s">
+      <c r="BC23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="BD23" s="10">
+      <c r="BD23" s="17">
         <v>15</v>
       </c>
-      <c r="BE23" s="10">
+      <c r="BE23" s="17">
         <v>15</v>
       </c>
-      <c r="BF23" s="10">
+      <c r="BF23" s="17">
         <v>15</v>
       </c>
-      <c r="BG23" s="10">
+      <c r="BG23" s="17">
         <v>13</v>
       </c>
-      <c r="BH23" s="10">
+      <c r="BH23" s="17">
         <v>13</v>
       </c>
-      <c r="BI23" s="10">
+      <c r="BI23" s="17">
         <v>14</v>
       </c>
-      <c r="BJ23" s="10">
+      <c r="BJ23" s="17">
         <v>11</v>
       </c>
-      <c r="BK23" s="10">
+      <c r="BK23" s="17">
         <v>11</v>
       </c>
-      <c r="BL23" s="10">
+      <c r="BL23" s="17">
         <v>13</v>
       </c>
-      <c r="BM23" s="10">
+      <c r="BM23" s="17">
         <v>11</v>
       </c>
-      <c r="BN23" s="10">
+      <c r="BN23" s="17">
         <v>9</v>
       </c>
-      <c r="BO23" s="10">
+      <c r="BO23" s="17">
         <v>10</v>
       </c>
-      <c r="BP23" s="10">
+      <c r="BP23" s="17">
         <v>13</v>
       </c>
-      <c r="BQ23" s="10">
+      <c r="BQ23" s="17">
         <v>13</v>
       </c>
-      <c r="BR23" s="10">
+      <c r="BR23" s="17">
         <v>14</v>
       </c>
-      <c r="BS23" s="10">
+      <c r="BS23" s="17">
         <v>11</v>
       </c>
-      <c r="BT23" s="10">
+      <c r="BT23" s="17">
         <v>11</v>
       </c>
-      <c r="BU23" s="10">
+      <c r="BU23" s="17">
         <v>13</v>
       </c>
-      <c r="BV23" s="10">
+      <c r="BV23" s="17">
         <v>11</v>
       </c>
-      <c r="BW23" s="10">
+      <c r="BW23" s="17">
         <v>9</v>
       </c>
-      <c r="BX23" s="10">
+      <c r="BX23" s="17">
         <v>10</v>
       </c>
-      <c r="BY23" s="10">
+      <c r="BY23" s="17">
         <v>13</v>
       </c>
-      <c r="BZ23" s="10">
+      <c r="BZ23" s="17">
         <v>13</v>
       </c>
-      <c r="CA23" s="10">
+      <c r="CA23" s="17">
         <v>14</v>
       </c>
-      <c r="CB23" s="10">
+      <c r="CB23" s="17">
         <v>11</v>
       </c>
-      <c r="CC23" s="10">
+      <c r="CC23" s="17">
         <v>11</v>
       </c>
-      <c r="CD23" s="10">
+      <c r="CD23" s="17">
         <v>13</v>
       </c>
-      <c r="CE23" s="10">
+      <c r="CE23" s="17">
         <v>11</v>
       </c>
-      <c r="CF23" s="10">
+      <c r="CF23" s="17">
         <v>9</v>
       </c>
-      <c r="CG23" s="10">
+      <c r="CG23" s="17">
         <v>10</v>
       </c>
-      <c r="CH23" s="10">
+      <c r="CH23" s="17">
         <v>23.8</v>
       </c>
-      <c r="CI23" s="10">
+      <c r="CI23" s="17">
         <v>23.8</v>
       </c>
-      <c r="CJ23" s="10" t="s">
+      <c r="CJ23" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="CK23" s="10">
+      <c r="CK23" s="17">
         <v>57.1</v>
       </c>
-      <c r="CL23" s="10">
+      <c r="CL23" s="17">
         <v>51</v>
       </c>
-      <c r="CM23" s="10">
+      <c r="CM23" s="17">
         <v>29</v>
       </c>
-      <c r="CN23" s="10">
+      <c r="CN23" s="17">
         <v>27</v>
       </c>
-      <c r="CO23" s="10">
+      <c r="CO23" s="17">
         <v>26</v>
       </c>
-      <c r="CP23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY23" s="10">
+      <c r="CP23" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ23" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR23" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS23" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT23" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU23" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV23" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW23" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX23" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY23" s="17">
         <v>22.6</v>
       </c>
-      <c r="CZ23" s="10">
+      <c r="CZ23" s="17">
         <v>22.6</v>
       </c>
-      <c r="DA23" s="10">
+      <c r="DA23" s="17">
         <v>22.6</v>
       </c>
-      <c r="DB23" s="10">
+      <c r="DB23" s="17">
         <v>20.2</v>
       </c>
-      <c r="DC23" s="10">
+      <c r="DC23" s="17">
         <v>20.7</v>
       </c>
-      <c r="DD23" s="10">
+      <c r="DD23" s="17">
         <v>22.4</v>
       </c>
-      <c r="DE23" s="10">
+      <c r="DE23" s="17">
         <v>21.2</v>
       </c>
-      <c r="DF23" s="10">
+      <c r="DF23" s="17">
         <v>17.3</v>
       </c>
-      <c r="DG23" s="10">
+      <c r="DG23" s="17">
         <v>20.2</v>
       </c>
-      <c r="DH23" s="10">
+      <c r="DH23" s="17">
         <v>3713000000</v>
       </c>
-      <c r="DI23" s="10">
+      <c r="DI23" s="17">
         <v>79468000</v>
       </c>
-      <c r="DJ23" s="10" t="s">
+      <c r="DJ23" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="DK23" s="10">
+      <c r="DK23" s="17">
         <v>7763</v>
       </c>
-      <c r="DL23" s="10" t="s">
+      <c r="DL23" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="DM23" s="10" t="s">
+      <c r="DM23" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="DN23" s="10" t="s">
+      <c r="DN23" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="DO23" s="10" t="s">
+      <c r="DO23" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="DP23" s="10" t="s">
+      <c r="DP23" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="DQ23" s="10" t="s">
+      <c r="DQ23" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="DR23" s="10"/>
-      <c r="DS23" s="10"/>
-      <c r="DT23" s="10" t="s">
+      <c r="DR23" s="17"/>
+      <c r="DS23" s="17"/>
+      <c r="DT23" s="17" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9716,216 +9717,216 @@
       <c r="AX24" s="13"/>
       <c r="AY24" s="11"/>
       <c r="AZ24" s="14"/>
-      <c r="BA24" s="10" t="s">
+      <c r="BA24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="BB24" s="10" t="s">
+      <c r="BB24" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="BC24" s="10" t="s">
+      <c r="BC24" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="BD24" s="10">
+      <c r="BD24" s="17">
         <v>16</v>
       </c>
-      <c r="BE24" s="10">
+      <c r="BE24" s="17">
         <v>16</v>
       </c>
-      <c r="BF24" s="10">
+      <c r="BF24" s="17">
         <v>15</v>
       </c>
-      <c r="BG24" s="10">
+      <c r="BG24" s="17">
         <v>16</v>
       </c>
-      <c r="BH24" s="10">
+      <c r="BH24" s="17">
         <v>15</v>
       </c>
-      <c r="BI24" s="10">
+      <c r="BI24" s="17">
         <v>16</v>
       </c>
-      <c r="BJ24" s="10">
+      <c r="BJ24" s="17">
         <v>16</v>
       </c>
-      <c r="BK24" s="10">
+      <c r="BK24" s="17">
         <v>14</v>
       </c>
-      <c r="BL24" s="10">
+      <c r="BL24" s="17">
         <v>15</v>
       </c>
-      <c r="BM24" s="10">
+      <c r="BM24" s="17">
         <v>16</v>
       </c>
-      <c r="BN24" s="10">
+      <c r="BN24" s="17">
         <v>16</v>
       </c>
-      <c r="BO24" s="10">
+      <c r="BO24" s="17">
         <v>14</v>
       </c>
-      <c r="BP24" s="10">
+      <c r="BP24" s="17">
         <v>16</v>
       </c>
-      <c r="BQ24" s="10">
+      <c r="BQ24" s="17">
         <v>15</v>
       </c>
-      <c r="BR24" s="10">
+      <c r="BR24" s="17">
         <v>16</v>
       </c>
-      <c r="BS24" s="10">
+      <c r="BS24" s="17">
         <v>16</v>
       </c>
-      <c r="BT24" s="10">
+      <c r="BT24" s="17">
         <v>14</v>
       </c>
-      <c r="BU24" s="10">
+      <c r="BU24" s="17">
         <v>15</v>
       </c>
-      <c r="BV24" s="10">
+      <c r="BV24" s="17">
         <v>16</v>
       </c>
-      <c r="BW24" s="10">
+      <c r="BW24" s="17">
         <v>16</v>
       </c>
-      <c r="BX24" s="10">
+      <c r="BX24" s="17">
         <v>14</v>
       </c>
-      <c r="BY24" s="10">
+      <c r="BY24" s="17">
         <v>15</v>
       </c>
-      <c r="BZ24" s="10">
+      <c r="BZ24" s="17">
         <v>14</v>
       </c>
-      <c r="CA24" s="10">
+      <c r="CA24" s="17">
         <v>15</v>
       </c>
-      <c r="CB24" s="10">
+      <c r="CB24" s="17">
         <v>15</v>
       </c>
-      <c r="CC24" s="10">
+      <c r="CC24" s="17">
         <v>13</v>
       </c>
-      <c r="CD24" s="10">
+      <c r="CD24" s="17">
         <v>14</v>
       </c>
-      <c r="CE24" s="10">
+      <c r="CE24" s="17">
         <v>15</v>
       </c>
-      <c r="CF24" s="10">
+      <c r="CF24" s="17">
         <v>15</v>
       </c>
-      <c r="CG24" s="10">
+      <c r="CG24" s="17">
         <v>13</v>
       </c>
-      <c r="CH24" s="10">
+      <c r="CH24" s="17">
         <v>65.09999999999999</v>
       </c>
-      <c r="CI24" s="10">
+      <c r="CI24" s="17">
         <v>62.3</v>
       </c>
-      <c r="CJ24" s="10" t="s">
+      <c r="CJ24" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="CK24" s="10">
+      <c r="CK24" s="17">
         <v>57.5</v>
       </c>
-      <c r="CL24" s="10">
+      <c r="CL24" s="17">
         <v>73</v>
       </c>
-      <c r="CM24" s="10">
+      <c r="CM24" s="17">
         <v>54</v>
       </c>
-      <c r="CN24" s="10">
+      <c r="CN24" s="17">
         <v>68</v>
       </c>
-      <c r="CO24" s="10">
+      <c r="CO24" s="17">
         <v>31</v>
       </c>
-      <c r="CP24" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ24" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR24" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS24" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT24" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU24" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV24" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW24" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX24" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY24" s="10">
+      <c r="CP24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY24" s="17">
         <v>65.09999999999999</v>
       </c>
-      <c r="CZ24" s="10">
+      <c r="CZ24" s="17">
         <v>63</v>
       </c>
-      <c r="DA24" s="10">
+      <c r="DA24" s="17">
         <v>65.09999999999999</v>
       </c>
-      <c r="DB24" s="10">
+      <c r="DB24" s="17">
         <v>65.09999999999999</v>
       </c>
-      <c r="DC24" s="10">
+      <c r="DC24" s="17">
         <v>59.3</v>
       </c>
-      <c r="DD24" s="10">
+      <c r="DD24" s="17">
         <v>63</v>
       </c>
-      <c r="DE24" s="10">
+      <c r="DE24" s="17">
         <v>65.09999999999999</v>
       </c>
-      <c r="DF24" s="10">
+      <c r="DF24" s="17">
         <v>65.09999999999999</v>
       </c>
-      <c r="DG24" s="10">
+      <c r="DG24" s="17">
         <v>60.8</v>
       </c>
-      <c r="DH24" s="10">
+      <c r="DH24" s="17">
         <v>33749000000</v>
       </c>
-      <c r="DI24" s="10">
+      <c r="DI24" s="17">
         <v>932870000</v>
       </c>
-      <c r="DJ24" s="10" t="s">
+      <c r="DJ24" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="DK24" s="10">
+      <c r="DK24" s="17">
         <v>7764</v>
       </c>
-      <c r="DL24" s="10" t="s">
+      <c r="DL24" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="DM24" s="10" t="s">
+      <c r="DM24" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="DN24" s="10" t="s">
+      <c r="DN24" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="DO24" s="10" t="s">
+      <c r="DO24" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="DP24" s="10" t="s">
+      <c r="DP24" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="DQ24" s="10" t="s">
+      <c r="DQ24" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="DR24" s="10"/>
-      <c r="DS24" s="10"/>
-      <c r="DT24" s="10" t="s">
+      <c r="DR24" s="17"/>
+      <c r="DS24" s="17"/>
+      <c r="DT24" s="17" t="s">
         <v>369</v>
       </c>
     </row>
